--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.383147371187305</v>
+        <v>6.383147371187231</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.487366016828132</v>
+        <v>7.487366016828085</v>
       </c>
       <c r="E2">
-        <v>6.202794251981308</v>
+        <v>6.202794251981306</v>
       </c>
       <c r="F2">
         <v>59.40434371403202</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.71299585443849</v>
+        <v>12.71299585443854</v>
       </c>
       <c r="I2">
-        <v>5.28961377098967</v>
+        <v>5.2896137709897</v>
       </c>
       <c r="J2">
-        <v>48.79790730000776</v>
+        <v>48.79790730000779</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.078974182663439</v>
+        <v>6.078974182663437</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.821492196903868</v>
+        <v>6.821492196903857</v>
       </c>
       <c r="E3">
-        <v>6.072567337973524</v>
+        <v>6.072567337973457</v>
       </c>
       <c r="F3">
-        <v>54.71852705358711</v>
+        <v>54.71852705358721</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.22087945838429</v>
+        <v>13.22087945838426</v>
       </c>
       <c r="I3">
-        <v>5.407744426570175</v>
+        <v>5.407744426570219</v>
       </c>
       <c r="J3">
-        <v>44.96612643674251</v>
+        <v>44.96612643674256</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>29.15577908040364</v>
+        <v>29.15577908040369</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.88110748470663</v>
+        <v>5.88110748470658</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.409284038682308</v>
+        <v>6.409284038682326</v>
       </c>
       <c r="E4">
-        <v>5.996307056003105</v>
+        <v>5.99630705600304</v>
       </c>
       <c r="F4">
-        <v>52.00418801624479</v>
+        <v>52.00418801624491</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.54082648142526</v>
+        <v>13.54082648142517</v>
       </c>
       <c r="I4">
-        <v>5.482952678005288</v>
+        <v>5.482952678005291</v>
       </c>
       <c r="J4">
-        <v>42.54721319064106</v>
+        <v>42.54721319064119</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>27.59719058002519</v>
+        <v>27.59719058002527</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.797777585643402</v>
+        <v>5.797777585643357</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.239873924804913</v>
+        <v>6.239873924804929</v>
       </c>
       <c r="E5">
-        <v>5.96595286383448</v>
+        <v>5.965952863834546</v>
       </c>
       <c r="F5">
-        <v>50.89842769811916</v>
+        <v>50.89842769811919</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.6731627459217</v>
+        <v>13.67316274592171</v>
       </c>
       <c r="I5">
-        <v>5.514250351814564</v>
+        <v>5.514250351814632</v>
       </c>
       <c r="J5">
-        <v>41.54245599560515</v>
+        <v>41.54245599560517</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.783780541724599</v>
+        <v>5.783780541724524</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.214794149363319</v>
+        <v>6.214794149363302</v>
       </c>
       <c r="E6">
         <v>5.960951070423177</v>
       </c>
       <c r="F6">
-        <v>50.71478127952291</v>
+        <v>50.71478127952271</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.69525371317432</v>
+        <v>13.69525371317451</v>
       </c>
       <c r="I6">
-        <v>5.519486043267172</v>
+        <v>5.519486043267138</v>
       </c>
       <c r="J6">
-        <v>41.37440637064351</v>
+        <v>41.37440637064338</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.84147844508437</v>
+        <v>26.84147844508432</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.879994467080712</v>
+        <v>5.879994467080718</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.407005797405657</v>
+        <v>6.407005797405602</v>
       </c>
       <c r="E7">
-        <v>5.99589500156696</v>
+        <v>5.995895001566829</v>
       </c>
       <c r="F7">
         <v>51.98927661448472</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.54260336950337</v>
+        <v>13.54260336950328</v>
       </c>
       <c r="I7">
         <v>5.483372162571301</v>
       </c>
       <c r="J7">
-        <v>42.53374255364108</v>
+        <v>42.53374255364105</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.280630519583201</v>
+        <v>6.280630519583111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.258072424207608</v>
+        <v>7.258072424207486</v>
       </c>
       <c r="E8">
-        <v>6.1569813222307</v>
+        <v>6.156981322230764</v>
       </c>
       <c r="F8">
-        <v>57.78507199151942</v>
+        <v>57.78507199151953</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.88636357752151</v>
+        <v>12.88636357752152</v>
       </c>
       <c r="I8">
-        <v>5.329772761704778</v>
+        <v>5.329772761704929</v>
       </c>
       <c r="J8">
-        <v>47.48884415547022</v>
+        <v>47.48884415547028</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>30.78111101636209</v>
+        <v>30.78111101636211</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.973574148710113</v>
+        <v>6.973574148710035</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.936400840700705</v>
+        <v>8.936400840700751</v>
       </c>
       <c r="E9">
-        <v>6.515571176826497</v>
+        <v>6.515571176826438</v>
       </c>
       <c r="F9">
-        <v>69.64942789074232</v>
+        <v>69.64942789074253</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11.67192731731512</v>
+        <v>11.67192731731504</v>
       </c>
       <c r="I9">
-        <v>5.051564776971835</v>
+        <v>5.051564776971808</v>
       </c>
       <c r="J9">
-        <v>56.8242635163014</v>
+        <v>56.8242635163015</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.79315625081186</v>
+        <v>36.79315625081193</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.417960319743175</v>
+        <v>7.417960319743187</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.25090967487597</v>
+        <v>10.25090967487581</v>
       </c>
       <c r="E10">
-        <v>6.834783515100769</v>
+        <v>6.834783515100709</v>
       </c>
       <c r="F10">
-        <v>78.88805778129756</v>
+        <v>78.88805778129752</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10.84843803697717</v>
+        <v>10.84843803697715</v>
       </c>
       <c r="I10">
-        <v>4.865679695922699</v>
+        <v>4.865679695922776</v>
       </c>
       <c r="J10">
-        <v>63.74722875927952</v>
+        <v>63.74722875927949</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>41.2463407048168</v>
+        <v>41.24634070481682</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.603027502585374</v>
+        <v>7.603027502585304</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.89739230062685</v>
+        <v>10.89739230062689</v>
       </c>
       <c r="E11">
-        <v>7.005045369858067</v>
+        <v>7.005045369858184</v>
       </c>
       <c r="F11">
-        <v>83.39007149428633</v>
+        <v>83.39007149428677</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10.50183360905605</v>
+        <v>10.50183360905598</v>
       </c>
       <c r="I11">
-        <v>4.787251799451792</v>
+        <v>4.787251799451836</v>
       </c>
       <c r="J11">
-        <v>67.02961306719874</v>
+        <v>67.02961306719897</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>43.35497344705543</v>
+        <v>43.35497344705554</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.670189305417415</v>
+        <v>7.670189305417466</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.15389642791274</v>
+        <v>11.15389642791284</v>
       </c>
       <c r="E12">
-        <v>7.075207235526877</v>
+        <v>7.075207235526839</v>
       </c>
       <c r="F12">
-        <v>85.16657334060218</v>
+        <v>85.16657334060207</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10.37687327773707</v>
+        <v>10.376873277737</v>
       </c>
       <c r="I12">
-        <v>4.758780514925347</v>
+        <v>4.758780514925332</v>
       </c>
       <c r="J12">
-        <v>68.3098036218789</v>
+        <v>68.30980362187883</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>44.17672523837183</v>
+        <v>44.17672523837182</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.655865452134824</v>
+        <v>7.655865452134892</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.09802342426819</v>
+        <v>11.09802342426816</v>
       </c>
       <c r="E13">
-        <v>7.05979378264162</v>
+        <v>7.059793782641692</v>
       </c>
       <c r="F13">
-        <v>84.78011595054554</v>
+        <v>84.78011595054524</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>10.40345141666084</v>
       </c>
       <c r="I13">
-        <v>4.764849530642153</v>
+        <v>4.764849530642127</v>
       </c>
       <c r="J13">
-        <v>68.03201590647657</v>
+        <v>68.03201590647647</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>43.99844876020204</v>
+        <v>43.99844876020197</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.608615204489539</v>
+        <v>7.608615204489581</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.91822239242562</v>
+        <v>10.91822239242556</v>
       </c>
       <c r="E14">
-        <v>7.010686344640339</v>
+        <v>7.010686344640307</v>
       </c>
       <c r="F14">
-        <v>83.5345565635869</v>
+        <v>83.53455656358668</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10.49140804821094</v>
+        <v>10.49140804821088</v>
       </c>
       <c r="I14">
-        <v>4.784882002844106</v>
+        <v>4.784882002844074</v>
       </c>
       <c r="J14">
-        <v>67.13404299158671</v>
+        <v>67.13404299158658</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>43.422021836445</v>
+        <v>43.4220218364449</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.579274079079255</v>
+        <v>7.579274079079171</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.80980404352813</v>
+        <v>10.80980404352823</v>
       </c>
       <c r="E15">
-        <v>6.9814338550701</v>
+        <v>6.981433855070049</v>
       </c>
       <c r="F15">
-        <v>82.78211540561729</v>
+        <v>82.78211540561766</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10.54619802972861</v>
+        <v>10.54619802972878</v>
       </c>
       <c r="I15">
-        <v>4.797326594923996</v>
+        <v>4.797326594924005</v>
       </c>
       <c r="J15">
-        <v>66.58958920537962</v>
+        <v>66.5895892053798</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>43.07243169357503</v>
+        <v>43.07243169357521</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.405488540964599</v>
+        <v>7.405488540964584</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.2099777999224</v>
+        <v>10.20997779992245</v>
       </c>
       <c r="E16">
-        <v>6.824309286404606</v>
+        <v>6.824309286404735</v>
       </c>
       <c r="F16">
-        <v>78.60193458175684</v>
+        <v>78.60193458175694</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10.87181330006619</v>
+        <v>10.87181330006625</v>
       </c>
       <c r="I16">
-        <v>4.870953301718192</v>
+        <v>4.870953301718196</v>
       </c>
       <c r="J16">
-        <v>63.53670533800609</v>
+        <v>63.53670533800619</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>41.11102640929145</v>
+        <v>41.11102640929149</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.294249535412033</v>
+        <v>7.294249535412059</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.856991848619197</v>
+        <v>9.856991848619282</v>
       </c>
       <c r="E17">
-        <v>6.735442551089779</v>
+        <v>6.735442551089746</v>
       </c>
       <c r="F17">
-        <v>76.12975108267513</v>
+        <v>76.12975108267521</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11.07992602149711</v>
+        <v>11.0799260214971</v>
       </c>
       <c r="I17">
-        <v>4.917876186884047</v>
+        <v>4.917876186883989</v>
       </c>
       <c r="J17">
-        <v>61.70780591332628</v>
+        <v>61.70780591332635</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>39.93518301743064</v>
+        <v>39.93518301743068</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.228697125342038</v>
+        <v>7.228697125341944</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.658143688872592</v>
+        <v>9.65814368887259</v>
       </c>
       <c r="E18">
-        <v>6.686513925229846</v>
+        <v>6.686513925229883</v>
       </c>
       <c r="F18">
-        <v>74.73364458886697</v>
+        <v>74.73364458886699</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11.20207097473278</v>
+        <v>11.20207097473285</v>
       </c>
       <c r="I18">
-        <v>4.945413379060184</v>
+        <v>4.945413379060218</v>
       </c>
       <c r="J18">
-        <v>60.66692478764715</v>
+        <v>60.66692478764725</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>39.26574432507841</v>
+        <v>39.26574432507846</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.206242469221098</v>
+        <v>7.206242469221069</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.591432552539986</v>
+        <v>9.591432552539981</v>
       </c>
       <c r="E19">
-        <v>6.670278850894157</v>
+        <v>6.670278850894222</v>
       </c>
       <c r="F19">
-        <v>74.26476108047819</v>
+        <v>74.26476108047831</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11.24380010712407</v>
+        <v>11.24380010712419</v>
       </c>
       <c r="I19">
-        <v>4.954823844807906</v>
+        <v>4.954823844807961</v>
       </c>
       <c r="J19">
-        <v>60.31600441883954</v>
+        <v>60.3160044188396</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>39.04001684219374</v>
+        <v>39.04001684219379</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.306256179706298</v>
+        <v>7.306256179706275</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.89410958911189</v>
+        <v>9.894109589111997</v>
       </c>
       <c r="E20">
-        <v>6.74466537730224</v>
+        <v>6.744665377302235</v>
       </c>
       <c r="F20">
-        <v>76.39009075550304</v>
+        <v>76.39009075550359</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11.05750731737086</v>
+        <v>11.05750731737076</v>
       </c>
       <c r="I20">
-        <v>4.912822567471064</v>
+        <v>4.912822567471058</v>
       </c>
       <c r="J20">
-        <v>61.90125295077225</v>
+        <v>61.90125295077253</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>40.05958012297721</v>
+        <v>40.05958012297744</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.622578200629257</v>
+        <v>7.622578200629326</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.9706636403561</v>
+        <v>10.97066364035604</v>
       </c>
       <c r="E21">
-        <v>7.024931952918305</v>
+        <v>7.024931952918203</v>
       </c>
       <c r="F21">
-        <v>83.898138908344</v>
+        <v>83.89813890834394</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10.46537598172494</v>
+        <v>10.46537598172487</v>
       </c>
       <c r="I21">
-        <v>4.778960704566071</v>
+        <v>4.778960704566072</v>
       </c>
       <c r="J21">
-        <v>67.39658578441845</v>
+        <v>67.39658578441842</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.81179238118318</v>
+        <v>7.811792381183196</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.74754032272158</v>
+        <v>11.74754032272155</v>
       </c>
       <c r="E22">
-        <v>7.243629533176849</v>
+        <v>7.243629533176975</v>
       </c>
       <c r="F22">
-        <v>89.25389452914887</v>
+        <v>89.25389452914906</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10.1176268574434</v>
+        <v>10.11762685744331</v>
       </c>
       <c r="I22">
-        <v>4.699012922150462</v>
+        <v>4.699012922150541</v>
       </c>
       <c r="J22">
-        <v>71.22453304446915</v>
+        <v>71.2245330444693</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>46.04601189915474</v>
+        <v>46.04601189915481</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.712659628955357</v>
+        <v>7.712659628955347</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.32364849243617</v>
+        <v>11.32364849243627</v>
       </c>
       <c r="E23">
-        <v>7.122489835100089</v>
+        <v>7.122489835100115</v>
       </c>
       <c r="F23">
-        <v>86.33889813072466</v>
+        <v>86.33889813072457</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10.29837055203574</v>
+        <v>10.29837055203569</v>
       </c>
       <c r="I23">
-        <v>4.740802907950014</v>
+        <v>4.740802907950002</v>
       </c>
       <c r="J23">
-        <v>69.15012040289615</v>
+        <v>69.15012040289619</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>44.71589268119979</v>
+        <v>44.71589268119984</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.300832928433019</v>
+        <v>7.300832928433026</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.877316230686839</v>
+        <v>9.877316230686908</v>
       </c>
       <c r="E24">
-        <v>6.7404891364352</v>
+        <v>6.740489136435232</v>
       </c>
       <c r="F24">
-        <v>76.2723146016982</v>
+        <v>76.27231460169811</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>11.06763517641125</v>
       </c>
       <c r="I24">
-        <v>4.915105584903555</v>
+        <v>4.915105584903527</v>
       </c>
       <c r="J24">
-        <v>61.81376377244177</v>
+        <v>61.8137637724417</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>40.00332046668867</v>
+        <v>40.00332046668863</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.796748707920795</v>
+        <v>6.79674870792078</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.475253913672482</v>
+        <v>8.475253913672562</v>
       </c>
       <c r="E25">
-        <v>6.411673791549519</v>
+        <v>6.411673791549588</v>
       </c>
       <c r="F25">
-        <v>66.39103850891289</v>
+        <v>66.39103850891321</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.99106526663077</v>
+        <v>11.99106526663086</v>
       </c>
       <c r="I25">
-        <v>5.12403675965838</v>
+        <v>5.12403675965847</v>
       </c>
       <c r="J25">
-        <v>54.31548080569405</v>
+        <v>54.31548080569425</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>35.17805226178174</v>
+        <v>35.17805226178188</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.383147371187231</v>
+        <v>6.383147371187305</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.487366016828085</v>
+        <v>7.487366016828132</v>
       </c>
       <c r="E2">
-        <v>6.202794251981306</v>
+        <v>6.202794251981308</v>
       </c>
       <c r="F2">
         <v>59.40434371403202</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>12.71299585443854</v>
+        <v>12.71299585443849</v>
       </c>
       <c r="I2">
-        <v>5.2896137709897</v>
+        <v>5.28961377098967</v>
       </c>
       <c r="J2">
-        <v>48.79790730000779</v>
+        <v>48.79790730000776</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.078974182663437</v>
+        <v>6.078974182663439</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.821492196903857</v>
+        <v>6.821492196903868</v>
       </c>
       <c r="E3">
-        <v>6.072567337973457</v>
+        <v>6.072567337973524</v>
       </c>
       <c r="F3">
-        <v>54.71852705358721</v>
+        <v>54.71852705358711</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.22087945838426</v>
+        <v>13.22087945838429</v>
       </c>
       <c r="I3">
-        <v>5.407744426570219</v>
+        <v>5.407744426570175</v>
       </c>
       <c r="J3">
-        <v>44.96612643674256</v>
+        <v>44.96612643674251</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>29.15577908040369</v>
+        <v>29.15577908040364</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.88110748470658</v>
+        <v>5.88110748470663</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.409284038682326</v>
+        <v>6.409284038682308</v>
       </c>
       <c r="E4">
-        <v>5.99630705600304</v>
+        <v>5.996307056003105</v>
       </c>
       <c r="F4">
-        <v>52.00418801624491</v>
+        <v>52.00418801624479</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.54082648142517</v>
+        <v>13.54082648142526</v>
       </c>
       <c r="I4">
-        <v>5.482952678005291</v>
+        <v>5.482952678005288</v>
       </c>
       <c r="J4">
-        <v>42.54721319064119</v>
+        <v>42.54721319064106</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>27.59719058002527</v>
+        <v>27.59719058002519</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.797777585643357</v>
+        <v>5.797777585643402</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.239873924804929</v>
+        <v>6.239873924804913</v>
       </c>
       <c r="E5">
-        <v>5.965952863834546</v>
+        <v>5.96595286383448</v>
       </c>
       <c r="F5">
-        <v>50.89842769811919</v>
+        <v>50.89842769811916</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.67316274592171</v>
+        <v>13.6731627459217</v>
       </c>
       <c r="I5">
-        <v>5.514250351814632</v>
+        <v>5.514250351814564</v>
       </c>
       <c r="J5">
-        <v>41.54245599560517</v>
+        <v>41.54245599560515</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.783780541724524</v>
+        <v>5.783780541724599</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.214794149363302</v>
+        <v>6.214794149363319</v>
       </c>
       <c r="E6">
         <v>5.960951070423177</v>
       </c>
       <c r="F6">
-        <v>50.71478127952271</v>
+        <v>50.71478127952291</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.69525371317451</v>
+        <v>13.69525371317432</v>
       </c>
       <c r="I6">
-        <v>5.519486043267138</v>
+        <v>5.519486043267172</v>
       </c>
       <c r="J6">
-        <v>41.37440637064338</v>
+        <v>41.37440637064351</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>26.84147844508432</v>
+        <v>26.84147844508437</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.879994467080718</v>
+        <v>5.879994467080712</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.407005797405602</v>
+        <v>6.407005797405657</v>
       </c>
       <c r="E7">
-        <v>5.995895001566829</v>
+        <v>5.99589500156696</v>
       </c>
       <c r="F7">
         <v>51.98927661448472</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.54260336950328</v>
+        <v>13.54260336950337</v>
       </c>
       <c r="I7">
         <v>5.483372162571301</v>
       </c>
       <c r="J7">
-        <v>42.53374255364105</v>
+        <v>42.53374255364108</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.280630519583111</v>
+        <v>6.280630519583201</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.258072424207486</v>
+        <v>7.258072424207608</v>
       </c>
       <c r="E8">
-        <v>6.156981322230764</v>
+        <v>6.1569813222307</v>
       </c>
       <c r="F8">
-        <v>57.78507199151953</v>
+        <v>57.78507199151942</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.88636357752152</v>
+        <v>12.88636357752151</v>
       </c>
       <c r="I8">
-        <v>5.329772761704929</v>
+        <v>5.329772761704778</v>
       </c>
       <c r="J8">
-        <v>47.48884415547028</v>
+        <v>47.48884415547022</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>30.78111101636211</v>
+        <v>30.78111101636209</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.973574148710035</v>
+        <v>6.973574148710113</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.936400840700751</v>
+        <v>8.936400840700705</v>
       </c>
       <c r="E9">
-        <v>6.515571176826438</v>
+        <v>6.515571176826497</v>
       </c>
       <c r="F9">
-        <v>69.64942789074253</v>
+        <v>69.64942789074232</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11.67192731731504</v>
+        <v>11.67192731731512</v>
       </c>
       <c r="I9">
-        <v>5.051564776971808</v>
+        <v>5.051564776971835</v>
       </c>
       <c r="J9">
-        <v>56.8242635163015</v>
+        <v>56.8242635163014</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>36.79315625081193</v>
+        <v>36.79315625081186</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.417960319743187</v>
+        <v>7.417960319743175</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.25090967487581</v>
+        <v>10.25090967487597</v>
       </c>
       <c r="E10">
-        <v>6.834783515100709</v>
+        <v>6.834783515100769</v>
       </c>
       <c r="F10">
-        <v>78.88805778129752</v>
+        <v>78.88805778129756</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10.84843803697715</v>
+        <v>10.84843803697717</v>
       </c>
       <c r="I10">
-        <v>4.865679695922776</v>
+        <v>4.865679695922699</v>
       </c>
       <c r="J10">
-        <v>63.74722875927949</v>
+        <v>63.74722875927952</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>41.24634070481682</v>
+        <v>41.2463407048168</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.603027502585304</v>
+        <v>7.603027502585374</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.89739230062689</v>
+        <v>10.89739230062685</v>
       </c>
       <c r="E11">
-        <v>7.005045369858184</v>
+        <v>7.005045369858067</v>
       </c>
       <c r="F11">
-        <v>83.39007149428677</v>
+        <v>83.39007149428633</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10.50183360905598</v>
+        <v>10.50183360905605</v>
       </c>
       <c r="I11">
-        <v>4.787251799451836</v>
+        <v>4.787251799451792</v>
       </c>
       <c r="J11">
-        <v>67.02961306719897</v>
+        <v>67.02961306719874</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>43.35497344705554</v>
+        <v>43.35497344705543</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.670189305417466</v>
+        <v>7.670189305417415</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.15389642791284</v>
+        <v>11.15389642791274</v>
       </c>
       <c r="E12">
-        <v>7.075207235526839</v>
+        <v>7.075207235526877</v>
       </c>
       <c r="F12">
-        <v>85.16657334060207</v>
+        <v>85.16657334060218</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10.376873277737</v>
+        <v>10.37687327773707</v>
       </c>
       <c r="I12">
-        <v>4.758780514925332</v>
+        <v>4.758780514925347</v>
       </c>
       <c r="J12">
-        <v>68.30980362187883</v>
+        <v>68.3098036218789</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>44.17672523837182</v>
+        <v>44.17672523837183</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.655865452134892</v>
+        <v>7.655865452134824</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.09802342426816</v>
+        <v>11.09802342426819</v>
       </c>
       <c r="E13">
-        <v>7.059793782641692</v>
+        <v>7.05979378264162</v>
       </c>
       <c r="F13">
-        <v>84.78011595054524</v>
+        <v>84.78011595054554</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>10.40345141666084</v>
       </c>
       <c r="I13">
-        <v>4.764849530642127</v>
+        <v>4.764849530642153</v>
       </c>
       <c r="J13">
-        <v>68.03201590647647</v>
+        <v>68.03201590647657</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>43.99844876020197</v>
+        <v>43.99844876020204</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.608615204489581</v>
+        <v>7.608615204489539</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.91822239242556</v>
+        <v>10.91822239242562</v>
       </c>
       <c r="E14">
-        <v>7.010686344640307</v>
+        <v>7.010686344640339</v>
       </c>
       <c r="F14">
-        <v>83.53455656358668</v>
+        <v>83.5345565635869</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10.49140804821088</v>
+        <v>10.49140804821094</v>
       </c>
       <c r="I14">
-        <v>4.784882002844074</v>
+        <v>4.784882002844106</v>
       </c>
       <c r="J14">
-        <v>67.13404299158658</v>
+        <v>67.13404299158671</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>43.4220218364449</v>
+        <v>43.422021836445</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.579274079079171</v>
+        <v>7.579274079079255</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.80980404352823</v>
+        <v>10.80980404352813</v>
       </c>
       <c r="E15">
-        <v>6.981433855070049</v>
+        <v>6.9814338550701</v>
       </c>
       <c r="F15">
-        <v>82.78211540561766</v>
+        <v>82.78211540561729</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10.54619802972878</v>
+        <v>10.54619802972861</v>
       </c>
       <c r="I15">
-        <v>4.797326594924005</v>
+        <v>4.797326594923996</v>
       </c>
       <c r="J15">
-        <v>66.5895892053798</v>
+        <v>66.58958920537962</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>43.07243169357521</v>
+        <v>43.07243169357503</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.405488540964584</v>
+        <v>7.405488540964599</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.20997779992245</v>
+        <v>10.2099777999224</v>
       </c>
       <c r="E16">
-        <v>6.824309286404735</v>
+        <v>6.824309286404606</v>
       </c>
       <c r="F16">
-        <v>78.60193458175694</v>
+        <v>78.60193458175684</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10.87181330006625</v>
+        <v>10.87181330006619</v>
       </c>
       <c r="I16">
-        <v>4.870953301718196</v>
+        <v>4.870953301718192</v>
       </c>
       <c r="J16">
-        <v>63.53670533800619</v>
+        <v>63.53670533800609</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>41.11102640929149</v>
+        <v>41.11102640929145</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.294249535412059</v>
+        <v>7.294249535412033</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.856991848619282</v>
+        <v>9.856991848619197</v>
       </c>
       <c r="E17">
-        <v>6.735442551089746</v>
+        <v>6.735442551089779</v>
       </c>
       <c r="F17">
-        <v>76.12975108267521</v>
+        <v>76.12975108267513</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11.0799260214971</v>
+        <v>11.07992602149711</v>
       </c>
       <c r="I17">
-        <v>4.917876186883989</v>
+        <v>4.917876186884047</v>
       </c>
       <c r="J17">
-        <v>61.70780591332635</v>
+        <v>61.70780591332628</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>39.93518301743068</v>
+        <v>39.93518301743064</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.228697125341944</v>
+        <v>7.228697125342038</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.65814368887259</v>
+        <v>9.658143688872592</v>
       </c>
       <c r="E18">
-        <v>6.686513925229883</v>
+        <v>6.686513925229846</v>
       </c>
       <c r="F18">
-        <v>74.73364458886699</v>
+        <v>74.73364458886697</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11.20207097473285</v>
+        <v>11.20207097473278</v>
       </c>
       <c r="I18">
-        <v>4.945413379060218</v>
+        <v>4.945413379060184</v>
       </c>
       <c r="J18">
-        <v>60.66692478764725</v>
+        <v>60.66692478764715</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>39.26574432507846</v>
+        <v>39.26574432507841</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.206242469221069</v>
+        <v>7.206242469221098</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.591432552539981</v>
+        <v>9.591432552539986</v>
       </c>
       <c r="E19">
-        <v>6.670278850894222</v>
+        <v>6.670278850894157</v>
       </c>
       <c r="F19">
-        <v>74.26476108047831</v>
+        <v>74.26476108047819</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11.24380010712419</v>
+        <v>11.24380010712407</v>
       </c>
       <c r="I19">
-        <v>4.954823844807961</v>
+        <v>4.954823844807906</v>
       </c>
       <c r="J19">
-        <v>60.3160044188396</v>
+        <v>60.31600441883954</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>39.04001684219379</v>
+        <v>39.04001684219374</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.306256179706275</v>
+        <v>7.306256179706298</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.894109589111997</v>
+        <v>9.89410958911189</v>
       </c>
       <c r="E20">
-        <v>6.744665377302235</v>
+        <v>6.74466537730224</v>
       </c>
       <c r="F20">
-        <v>76.39009075550359</v>
+        <v>76.39009075550304</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11.05750731737076</v>
+        <v>11.05750731737086</v>
       </c>
       <c r="I20">
-        <v>4.912822567471058</v>
+        <v>4.912822567471064</v>
       </c>
       <c r="J20">
-        <v>61.90125295077253</v>
+        <v>61.90125295077225</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>40.05958012297744</v>
+        <v>40.05958012297721</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.622578200629326</v>
+        <v>7.622578200629257</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.97066364035604</v>
+        <v>10.9706636403561</v>
       </c>
       <c r="E21">
-        <v>7.024931952918203</v>
+        <v>7.024931952918305</v>
       </c>
       <c r="F21">
-        <v>83.89813890834394</v>
+        <v>83.898138908344</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10.46537598172487</v>
+        <v>10.46537598172494</v>
       </c>
       <c r="I21">
-        <v>4.778960704566072</v>
+        <v>4.778960704566071</v>
       </c>
       <c r="J21">
-        <v>67.39658578441842</v>
+        <v>67.39658578441845</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.811792381183196</v>
+        <v>7.81179238118318</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.74754032272155</v>
+        <v>11.74754032272158</v>
       </c>
       <c r="E22">
-        <v>7.243629533176975</v>
+        <v>7.243629533176849</v>
       </c>
       <c r="F22">
-        <v>89.25389452914906</v>
+        <v>89.25389452914887</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10.11762685744331</v>
+        <v>10.1176268574434</v>
       </c>
       <c r="I22">
-        <v>4.699012922150541</v>
+        <v>4.699012922150462</v>
       </c>
       <c r="J22">
-        <v>71.2245330444693</v>
+        <v>71.22453304446915</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>46.04601189915481</v>
+        <v>46.04601189915474</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.712659628955347</v>
+        <v>7.712659628955357</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.32364849243627</v>
+        <v>11.32364849243617</v>
       </c>
       <c r="E23">
-        <v>7.122489835100115</v>
+        <v>7.122489835100089</v>
       </c>
       <c r="F23">
-        <v>86.33889813072457</v>
+        <v>86.33889813072466</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10.29837055203569</v>
+        <v>10.29837055203574</v>
       </c>
       <c r="I23">
-        <v>4.740802907950002</v>
+        <v>4.740802907950014</v>
       </c>
       <c r="J23">
-        <v>69.15012040289619</v>
+        <v>69.15012040289615</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>44.71589268119984</v>
+        <v>44.71589268119979</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.300832928433026</v>
+        <v>7.300832928433019</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.877316230686908</v>
+        <v>9.877316230686839</v>
       </c>
       <c r="E24">
-        <v>6.740489136435232</v>
+        <v>6.7404891364352</v>
       </c>
       <c r="F24">
-        <v>76.27231460169811</v>
+        <v>76.2723146016982</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>11.06763517641125</v>
       </c>
       <c r="I24">
-        <v>4.915105584903527</v>
+        <v>4.915105584903555</v>
       </c>
       <c r="J24">
-        <v>61.8137637724417</v>
+        <v>61.81376377244177</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>40.00332046668863</v>
+        <v>40.00332046668867</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.79674870792078</v>
+        <v>6.796748707920795</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.475253913672562</v>
+        <v>8.475253913672482</v>
       </c>
       <c r="E25">
-        <v>6.411673791549588</v>
+        <v>6.411673791549519</v>
       </c>
       <c r="F25">
-        <v>66.39103850891321</v>
+        <v>66.39103850891289</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.99106526663086</v>
+        <v>11.99106526663077</v>
       </c>
       <c r="I25">
-        <v>5.12403675965847</v>
+        <v>5.12403675965838</v>
       </c>
       <c r="J25">
-        <v>54.31548080569425</v>
+        <v>54.31548080569405</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>35.17805226178188</v>
+        <v>35.17805226178174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.383147371187305</v>
+        <v>6.398955151672532</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.487366016828132</v>
+        <v>7.377069399798465</v>
       </c>
       <c r="E2">
-        <v>6.202794251981308</v>
+        <v>5.969304461953471</v>
       </c>
       <c r="F2">
-        <v>59.40434371403202</v>
+        <v>59.15897744363644</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.955582102288007</v>
       </c>
       <c r="H2">
-        <v>12.71299585443849</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.28961377098967</v>
+        <v>12.85961014310166</v>
       </c>
       <c r="J2">
-        <v>48.79790730000776</v>
+        <v>5.234752334119511</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>48.45147486150083</v>
       </c>
       <c r="L2">
-        <v>31.62443316618648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>31.41713667553251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.078974182663439</v>
+        <v>6.095460870964729</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.821492196903868</v>
+        <v>6.722426788689803</v>
       </c>
       <c r="E3">
-        <v>6.072567337973524</v>
+        <v>5.835864403517859</v>
       </c>
       <c r="F3">
-        <v>54.71852705358711</v>
+        <v>54.65229067935456</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.983227472029161</v>
       </c>
       <c r="H3">
-        <v>13.22087945838429</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.407744426570175</v>
+        <v>13.36879053966966</v>
       </c>
       <c r="J3">
-        <v>44.96612643674251</v>
+        <v>5.351465707037089</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>44.64630233028767</v>
       </c>
       <c r="L3">
-        <v>29.15577908040364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>28.96287777906519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.88110748470663</v>
+        <v>5.898129059063267</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.409284038682308</v>
+        <v>6.402295273607633</v>
       </c>
       <c r="E4">
-        <v>5.996307056003105</v>
+        <v>5.757408451920539</v>
       </c>
       <c r="F4">
-        <v>52.00418801624479</v>
+        <v>51.99732262906329</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.999996127408211</v>
       </c>
       <c r="H4">
-        <v>13.54082648142526</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5.482952678005288</v>
+        <v>13.68932302670224</v>
       </c>
       <c r="J4">
-        <v>42.54721319064106</v>
+        <v>5.425814261236032</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>42.24331914585303</v>
       </c>
       <c r="L4">
-        <v>27.59719058002519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>27.41268507863738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.797777585643402</v>
+        <v>5.815045792368691</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.239873924804913</v>
+        <v>6.282062219371613</v>
       </c>
       <c r="E5">
-        <v>5.96595286383448</v>
+        <v>5.726111861975177</v>
       </c>
       <c r="F5">
-        <v>50.89842769811916</v>
+        <v>50.91684888922773</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.006808763151481</v>
       </c>
       <c r="H5">
-        <v>13.6731627459217</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.514250351814564</v>
+        <v>13.82186013396375</v>
       </c>
       <c r="J5">
-        <v>41.54245599560515</v>
+        <v>5.456763110401316</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>41.2450249372439</v>
       </c>
       <c r="L5">
-        <v>26.94976424949818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>26.76860945065217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.783780541724599</v>
+        <v>5.801091413325004</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.214794149363319</v>
+        <v>6.262220928941573</v>
       </c>
       <c r="E6">
-        <v>5.960951070423177</v>
+        <v>5.720950913865588</v>
       </c>
       <c r="F6">
-        <v>50.71478127952291</v>
+        <v>50.73747125825322</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.007939533952446</v>
       </c>
       <c r="H6">
-        <v>13.69525371317432</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5.519486043267172</v>
+        <v>13.84398253021978</v>
       </c>
       <c r="J6">
-        <v>41.37440637064351</v>
+        <v>5.461940939369665</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>41.0780485941615</v>
       </c>
       <c r="L6">
-        <v>26.84147844508437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>26.66087673293639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.879994467080712</v>
+        <v>5.897019252493913</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.407005797405657</v>
+        <v>6.400665322195865</v>
       </c>
       <c r="E7">
-        <v>5.99589500156696</v>
+        <v>5.756983871293539</v>
       </c>
       <c r="F7">
-        <v>51.98927661448472</v>
+        <v>51.98274764343478</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.000088052483763</v>
       </c>
       <c r="H7">
-        <v>13.54260336950337</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>5.483372162571301</v>
+        <v>13.69110275947893</v>
       </c>
       <c r="J7">
-        <v>42.53374255364108</v>
+        <v>5.42622903676097</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>42.22993570195898</v>
       </c>
       <c r="L7">
-        <v>27.58851071469994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>27.40405064284979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.280630519583201</v>
+        <v>6.29664707353709</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.258072424207608</v>
+        <v>7.1515919666899</v>
       </c>
       <c r="E8">
-        <v>6.1569813222307</v>
+        <v>5.922435660644364</v>
       </c>
       <c r="F8">
-        <v>57.78507199151942</v>
+        <v>57.56766426376774</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.965177768164587</v>
       </c>
       <c r="H8">
-        <v>12.88636357752151</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5.329772761704778</v>
+        <v>13.03347963394601</v>
       </c>
       <c r="J8">
-        <v>47.48884415547022</v>
+        <v>5.274419754682691</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>47.15172170246721</v>
       </c>
       <c r="L8">
-        <v>30.78111101636209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>30.57889865729762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.973574148710113</v>
+        <v>6.988643809364374</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.936400840700705</v>
+        <v>8.802304388547888</v>
       </c>
       <c r="E9">
-        <v>6.515571176826497</v>
+        <v>6.287261753366464</v>
       </c>
       <c r="F9">
-        <v>69.64942789074232</v>
+        <v>69.23408125416356</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.893212442858257</v>
       </c>
       <c r="H9">
-        <v>11.67192731731512</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5.051564776971835</v>
+        <v>11.81357373235983</v>
       </c>
       <c r="J9">
-        <v>56.8242635163014</v>
+        <v>4.999858380041433</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>56.41369578831628</v>
       </c>
       <c r="L9">
-        <v>36.79315625081186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>36.54978006189059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.417960319743175</v>
+        <v>7.433241621209803</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.25090967487597</v>
+        <v>10.09375936861533</v>
       </c>
       <c r="E10">
-        <v>6.834783515100769</v>
+        <v>6.608255894342518</v>
       </c>
       <c r="F10">
-        <v>78.88805778129756</v>
+        <v>78.31533907367772</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.834325763128654</v>
       </c>
       <c r="H10">
-        <v>10.84843803697717</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4.865679695922699</v>
+        <v>10.9816836666053</v>
       </c>
       <c r="J10">
-        <v>63.74722875927952</v>
+        <v>4.816789065685226</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>63.26581768870714</v>
       </c>
       <c r="L10">
-        <v>41.2463407048168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>40.96168502941509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.603027502585374</v>
+        <v>7.61876062974316</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.89739230062685</v>
+        <v>10.72748460147609</v>
       </c>
       <c r="E11">
-        <v>7.005045369858067</v>
+        <v>6.77799305605958</v>
       </c>
       <c r="F11">
-        <v>83.39007149428633</v>
+        <v>82.7329437730555</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.80468578573922</v>
       </c>
       <c r="H11">
-        <v>10.50183360905605</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>4.787251799451792</v>
+        <v>10.62899421211998</v>
       </c>
       <c r="J11">
-        <v>67.02961306719874</v>
+        <v>4.739657821318585</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>66.5062198602029</v>
       </c>
       <c r="L11">
-        <v>43.35497344705543</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>43.04542734046527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.670189305417415</v>
+        <v>7.686175656778288</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.15389642791274</v>
+        <v>10.97852202852328</v>
       </c>
       <c r="E12">
-        <v>7.075207235526877</v>
+        <v>6.847622529600581</v>
       </c>
       <c r="F12">
-        <v>85.16657334060218</v>
+        <v>84.47376949242118</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.792819345145956</v>
       </c>
       <c r="H12">
-        <v>10.37687327773707</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>4.758780514925347</v>
+        <v>10.50117741793573</v>
       </c>
       <c r="J12">
-        <v>68.3098036218789</v>
+        <v>4.711672076941116</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>67.76796039781799</v>
       </c>
       <c r="L12">
-        <v>44.17672523837183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>43.85616989750186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.655865452134824</v>
+        <v>7.671792786398372</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.09802342426819</v>
+        <v>10.92386280532507</v>
       </c>
       <c r="E13">
-        <v>7.05979378264162</v>
+        <v>6.832342396404158</v>
       </c>
       <c r="F13">
-        <v>84.78011595054554</v>
+        <v>84.09520967004801</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.795408916214981</v>
       </c>
       <c r="H13">
-        <v>10.40345141666084</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4.764849530642153</v>
+        <v>10.52840091778217</v>
       </c>
       <c r="J13">
-        <v>68.03201590647657</v>
+        <v>4.717637033184588</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>67.49429014571891</v>
       </c>
       <c r="L13">
-        <v>43.99844876020204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>43.6803535614094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.608615204489539</v>
+        <v>7.624367234687695</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.91822239242562</v>
+        <v>10.74788048385441</v>
       </c>
       <c r="E14">
-        <v>7.010686344640339</v>
+        <v>6.783598225939376</v>
       </c>
       <c r="F14">
-        <v>83.5345565635869</v>
+        <v>82.87458495862354</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.803724263259358</v>
       </c>
       <c r="H14">
-        <v>10.49140804821094</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4.784882002844106</v>
+        <v>10.61834665463747</v>
       </c>
       <c r="J14">
-        <v>67.13404299158671</v>
+        <v>4.737328169689571</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>66.60919347507476</v>
       </c>
       <c r="L14">
-        <v>43.422021836445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>43.11160813886796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.579274079079255</v>
+        <v>7.594930831177956</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.80980404352813</v>
+        <v>10.64170455059707</v>
       </c>
       <c r="E15">
-        <v>6.9814338550701</v>
+        <v>6.754518326295667</v>
       </c>
       <c r="F15">
-        <v>82.78211540561729</v>
+        <v>82.13685022479727</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.808724642766237</v>
       </c>
       <c r="H15">
-        <v>10.54619802972861</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>4.797326594923996</v>
+        <v>10.67427343413577</v>
       </c>
       <c r="J15">
-        <v>66.58958920537962</v>
+        <v>4.749562536606089</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>66.07224270075848</v>
       </c>
       <c r="L15">
-        <v>43.07243169357503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>42.76648516487296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.405488540964599</v>
+        <v>7.420749551675004</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.2099777999224</v>
+        <v>10.05359456768217</v>
       </c>
       <c r="E16">
-        <v>6.824309286404606</v>
+        <v>6.597779605498815</v>
       </c>
       <c r="F16">
-        <v>78.60193458175684</v>
+        <v>78.03434707669952</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.836188514023479</v>
       </c>
       <c r="H16">
-        <v>10.87181330006619</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>4.870953301718192</v>
+        <v>11.00539518029746</v>
       </c>
       <c r="J16">
-        <v>63.53670533800609</v>
+        <v>4.821977821368013</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>63.05776386869572</v>
       </c>
       <c r="L16">
-        <v>41.11102640929145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>40.82782676653608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.294249535412033</v>
+        <v>7.309373807942652</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.856991848619197</v>
+        <v>9.707062906051901</v>
       </c>
       <c r="E17">
-        <v>6.735442551089779</v>
+        <v>6.508739518849473</v>
       </c>
       <c r="F17">
-        <v>76.12975108267513</v>
+        <v>75.60561007388189</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.852178740503145</v>
       </c>
       <c r="H17">
-        <v>11.07992602149711</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>4.917876186884047</v>
+        <v>11.21618930439569</v>
       </c>
       <c r="J17">
-        <v>61.70780591332628</v>
+        <v>4.868158927957248</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>61.24936462020503</v>
       </c>
       <c r="L17">
-        <v>39.93518301743064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>39.66402855870255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.228697125342038</v>
+        <v>7.243773549939955</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.658143688872592</v>
+        <v>9.511739687853925</v>
       </c>
       <c r="E18">
-        <v>6.686513925229846</v>
+        <v>6.459597654289984</v>
       </c>
       <c r="F18">
-        <v>74.73364458886697</v>
+        <v>74.2334444852933</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.86112632216149</v>
       </c>
       <c r="H18">
-        <v>11.20207097473278</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>4.945413379060184</v>
+        <v>11.33968258157318</v>
       </c>
       <c r="J18">
-        <v>60.66692478764715</v>
+        <v>4.895271697896576</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>60.2194545380884</v>
       </c>
       <c r="L18">
-        <v>39.26574432507841</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>39.00100283659911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.206242469221098</v>
+        <v>7.221307406315149</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.591432552539986</v>
+        <v>9.446195734735948</v>
       </c>
       <c r="E19">
-        <v>6.670278850894157</v>
+        <v>6.443273501046591</v>
       </c>
       <c r="F19">
-        <v>74.26476108047819</v>
+        <v>73.7725227285904</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.864118063897056</v>
       </c>
       <c r="H19">
-        <v>11.24380010712407</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4.954823844807906</v>
+        <v>11.38183952145666</v>
       </c>
       <c r="J19">
-        <v>60.31600441883954</v>
+        <v>4.90453893207911</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>59.87212964578445</v>
       </c>
       <c r="L19">
-        <v>39.04001684219374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>38.77737150141558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.306256179706298</v>
+        <v>7.32139167346882</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.89410958911189</v>
+        <v>9.743514464835176</v>
       </c>
       <c r="E20">
-        <v>6.74466537730224</v>
+        <v>6.517993216347495</v>
       </c>
       <c r="F20">
-        <v>76.39009075550304</v>
+        <v>75.86144238129624</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.850503657599754</v>
       </c>
       <c r="H20">
-        <v>11.05750731737086</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>4.912822567471064</v>
+        <v>11.19350639325837</v>
       </c>
       <c r="J20">
-        <v>61.90125295077225</v>
+        <v>4.863184065822976</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>61.44071978054362</v>
       </c>
       <c r="L20">
-        <v>40.05958012297721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>39.78720012583742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.622578200629257</v>
+        <v>7.638379097770262</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.9706636403561</v>
+        <v>10.79922123263218</v>
       </c>
       <c r="E21">
-        <v>7.024931952918305</v>
+        <v>6.797748010190354</v>
       </c>
       <c r="F21">
-        <v>83.898138908344</v>
+        <v>83.23096753801278</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.801301870824275</v>
       </c>
       <c r="H21">
-        <v>10.46537598172494</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4.778960704566071</v>
+        <v>10.59174802590351</v>
       </c>
       <c r="J21">
-        <v>67.39658578441845</v>
+        <v>4.731507403251167</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>66.86803799331619</v>
       </c>
       <c r="L21">
-        <v>43.59057381314779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>43.27795576997981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.81179238118318</v>
+        <v>7.828551046272773</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.74754032272158</v>
+        <v>11.55833586081101</v>
       </c>
       <c r="E22">
-        <v>7.243629533176849</v>
+        <v>7.013959989840458</v>
       </c>
       <c r="F22">
-        <v>89.25389452914887</v>
+        <v>88.47197356548629</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.765156190384027</v>
       </c>
       <c r="H22">
-        <v>10.1176268574434</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4.699012922150462</v>
+        <v>10.23421177505617</v>
       </c>
       <c r="J22">
-        <v>71.22453304446915</v>
+        <v>4.652938893778877</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>70.6350451878503</v>
       </c>
       <c r="L22">
-        <v>46.04601189915474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>45.69687422657572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.712659628955357</v>
+        <v>7.728839045670798</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.32364849243617</v>
+        <v>11.14450115276999</v>
       </c>
       <c r="E23">
-        <v>7.122489835100089</v>
+        <v>6.894437469534538</v>
       </c>
       <c r="F23">
-        <v>86.33889813072466</v>
+        <v>85.62162782856745</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.784936194352363</v>
       </c>
       <c r="H23">
-        <v>10.29837055203574</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.740802907950014</v>
+        <v>10.42063166987909</v>
       </c>
       <c r="J23">
-        <v>69.15012040289615</v>
+        <v>4.694004207481814</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>68.59540716169388</v>
       </c>
       <c r="L23">
-        <v>44.71589268119979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>44.38763656931973</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.300832928433019</v>
+        <v>7.315963255098942</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.877316230686839</v>
+        <v>9.727022847033281</v>
       </c>
       <c r="E24">
-        <v>6.7404891364352</v>
+        <v>6.513803363947805</v>
       </c>
       <c r="F24">
-        <v>76.2723146016982</v>
+        <v>75.74570712486099</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.851261711830176</v>
       </c>
       <c r="H24">
-        <v>11.06763517641125</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>4.915105584903555</v>
+        <v>11.2037542880247</v>
       </c>
       <c r="J24">
-        <v>61.81376377244177</v>
+        <v>4.865431470379352</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>61.35417880877365</v>
       </c>
       <c r="L24">
-        <v>40.00332046668867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>39.7314960878873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.796748707920795</v>
+        <v>6.811945623543518</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.475253913672482</v>
+        <v>8.348768148417342</v>
       </c>
       <c r="E25">
-        <v>6.411673791549519</v>
+        <v>6.182025893367474</v>
       </c>
       <c r="F25">
-        <v>66.39103850891289</v>
+        <v>66.02919514748268</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.913371914484174</v>
       </c>
       <c r="H25">
-        <v>11.99106526663077</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>5.12403675965838</v>
+        <v>12.13468418899292</v>
       </c>
       <c r="J25">
-        <v>54.31548080569405</v>
+        <v>5.071322040829048</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>53.92652189729398</v>
       </c>
       <c r="L25">
-        <v>35.17805226178174</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>34.9470076158934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.398955151672532</v>
+        <v>15.23147499470474</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.377069399798465</v>
+        <v>3.658600909482253</v>
       </c>
       <c r="E2">
-        <v>5.969304461953471</v>
+        <v>21.70920380499187</v>
       </c>
       <c r="F2">
-        <v>59.15897744363644</v>
+        <v>35.72044331167493</v>
       </c>
       <c r="G2">
-        <v>1.955582102288007</v>
+        <v>2.045560503358504</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.85961014310166</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.234752334119511</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>48.45147486150083</v>
+        <v>29.38622105542813</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.494332350326907</v>
       </c>
       <c r="M2">
-        <v>31.41713667553251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.0973623419965</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>27.8616223627686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.095460870964729</v>
+        <v>14.45987373807732</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.722426788689803</v>
+        <v>3.754961055891764</v>
       </c>
       <c r="E3">
-        <v>5.835864403517859</v>
+        <v>20.82047681214517</v>
       </c>
       <c r="F3">
-        <v>54.65229067935456</v>
+        <v>33.79602222593946</v>
       </c>
       <c r="G3">
-        <v>1.983227472029161</v>
+        <v>2.058261856988153</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.36879053966966</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.351465707037089</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>44.64630233028767</v>
+        <v>27.44978198078032</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.942160862410209</v>
       </c>
       <c r="M3">
-        <v>28.96287777906519</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.60805997200228</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.52119462146433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.898129059063267</v>
+        <v>13.9752160251916</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.402295273607633</v>
+        <v>3.817758634542328</v>
       </c>
       <c r="E4">
-        <v>5.757408451920539</v>
+        <v>20.2609116945</v>
       </c>
       <c r="F4">
-        <v>51.99732262906329</v>
+        <v>32.61291138616467</v>
       </c>
       <c r="G4">
-        <v>1.999996127408211</v>
+        <v>2.066209016892594</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.68932302670224</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.425814261236032</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>42.24331914585303</v>
+        <v>26.20184354558861</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.586727572372995</v>
       </c>
       <c r="M4">
-        <v>27.41268507863738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.30495168654474</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.70705941822315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.815045792368691</v>
+        <v>13.77518133211123</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.282062219371613</v>
+        <v>3.844189920480909</v>
       </c>
       <c r="E5">
-        <v>5.726111861975177</v>
+        <v>20.02943264315971</v>
       </c>
       <c r="F5">
-        <v>50.91684888922773</v>
+        <v>32.13076735456054</v>
       </c>
       <c r="G5">
-        <v>2.006808763151481</v>
+        <v>2.069488757981917</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.82186013396375</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.456763110401316</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>41.2450249372439</v>
+        <v>25.6782922201457</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.437719536865882</v>
       </c>
       <c r="M5">
-        <v>26.76860945065217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.18089647156286</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.37775098527309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.801091413325004</v>
+        <v>13.7418196719331</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.262220928941573</v>
+        <v>3.848627728637183</v>
       </c>
       <c r="E6">
-        <v>5.720950913865588</v>
+        <v>19.99078913993428</v>
       </c>
       <c r="F6">
-        <v>50.73747125825322</v>
+        <v>32.05071967657631</v>
       </c>
       <c r="G6">
-        <v>2.007939533952446</v>
+        <v>2.070035952034709</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.84398253021978</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.461940939369665</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>41.0780485941615</v>
+        <v>25.59044601611568</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.41272422418717</v>
       </c>
       <c r="M6">
-        <v>26.66087673293639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.16026922642833</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.32322580499217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.897019252493913</v>
+        <v>13.97252823639131</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.400665322195865</v>
+        <v>3.818111777940256</v>
       </c>
       <c r="E7">
-        <v>5.756983871293539</v>
+        <v>20.25780378295135</v>
       </c>
       <c r="F7">
-        <v>51.98274764343478</v>
+        <v>32.60640852121737</v>
       </c>
       <c r="G7">
-        <v>2.000088052483763</v>
+        <v>2.066253076907452</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.69110275947893</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.42622903676097</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>42.22993570195898</v>
+        <v>26.19484372148091</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.584734914240538</v>
       </c>
       <c r="M7">
-        <v>27.40405064284979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.30328060900758</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.70260795382522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.29664707353709</v>
+        <v>14.96779675037064</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.1515919666899</v>
+        <v>3.691023895746794</v>
       </c>
       <c r="E8">
-        <v>5.922435660644364</v>
+        <v>21.40566332259322</v>
       </c>
       <c r="F8">
-        <v>57.56766426376774</v>
+        <v>35.0573935534612</v>
       </c>
       <c r="G8">
-        <v>1.965177768164587</v>
+        <v>2.049911561037424</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.03347963394601</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5.274419754682691</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>47.15172170246721</v>
+        <v>28.73065248109886</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.307317562208222</v>
       </c>
       <c r="M8">
-        <v>30.57889865729762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.92928086691802</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.39770797392345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.988643809364374</v>
+        <v>16.82642179047883</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.802304388547888</v>
+        <v>3.474759481408255</v>
       </c>
       <c r="E9">
-        <v>6.287261753366464</v>
+        <v>23.54699067551579</v>
       </c>
       <c r="F9">
-        <v>69.23408125416356</v>
+        <v>39.84306484282047</v>
       </c>
       <c r="G9">
-        <v>1.893212442858257</v>
+        <v>2.018847730247336</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.81357373235983</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.999858380041433</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>56.41369578831628</v>
+        <v>33.2458009072879</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.596752790273074</v>
       </c>
       <c r="M9">
-        <v>36.54978006189059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.13088477602098</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.7868960579233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.433241621209803</v>
+        <v>18.12952957007642</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.09375936861533</v>
+        <v>3.343398878513013</v>
       </c>
       <c r="E10">
-        <v>6.608255894342518</v>
+        <v>25.05776943154481</v>
       </c>
       <c r="F10">
-        <v>78.31533907367772</v>
+        <v>43.34618595248515</v>
       </c>
       <c r="G10">
-        <v>1.834325763128654</v>
+        <v>1.996310914052014</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.9816836666053</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.816789065685226</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>63.26581768870714</v>
+        <v>36.30151617019203</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.47083681612546</v>
       </c>
       <c r="M10">
-        <v>40.96168502941509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.18099742741069</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.31686049676589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.61876062974316</v>
+        <v>18.70848676904079</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.72748460147609</v>
+        <v>3.291883767878279</v>
       </c>
       <c r="E11">
-        <v>6.77799305605958</v>
+        <v>25.73357442912741</v>
       </c>
       <c r="F11">
-        <v>82.7329437730555</v>
+        <v>45.02928693859116</v>
       </c>
       <c r="G11">
-        <v>1.80468578573922</v>
+        <v>1.986037235647943</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.62899421211998</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.739657821318585</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>66.5062198602029</v>
+        <v>37.63965413115349</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.85383958252398</v>
       </c>
       <c r="M11">
-        <v>43.04542734046527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.71490352853658</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.50614133664718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.686175656778288</v>
+        <v>18.92576393714927</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.97852202852328</v>
+        <v>3.273808315741416</v>
       </c>
       <c r="E12">
-        <v>6.847622529600581</v>
+        <v>25.98809429214166</v>
       </c>
       <c r="F12">
-        <v>84.47376949242118</v>
+        <v>45.6800502728733</v>
       </c>
       <c r="G12">
-        <v>1.792819345145956</v>
+        <v>1.982135502601154</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.50117741793573</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.711672076941116</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>67.76796039781799</v>
+        <v>38.13938729858016</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.99689756112918</v>
       </c>
       <c r="M12">
-        <v>43.85616989750186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.91404647512984</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.01372777326298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.671792786398372</v>
+        <v>18.87905573355307</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.92386280532507</v>
+        <v>3.277632975222829</v>
       </c>
       <c r="E13">
-        <v>6.832342396404158</v>
+        <v>25.93333594531952</v>
       </c>
       <c r="F13">
-        <v>84.09520967004801</v>
+        <v>45.5399584502883</v>
       </c>
       <c r="G13">
-        <v>1.795408916214981</v>
+        <v>1.982976459049062</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.52840091778217</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.717637033184588</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>67.49429014571891</v>
+        <v>38.03206329526732</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.9661731547338</v>
       </c>
       <c r="M13">
-        <v>43.6803535614094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.87128961188566</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.9044525251292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.624367234687695</v>
+        <v>18.72640128609747</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.74788048385441</v>
+        <v>3.290366378429381</v>
       </c>
       <c r="E14">
-        <v>6.783598225939376</v>
+        <v>25.75454011160476</v>
       </c>
       <c r="F14">
-        <v>82.87458495862354</v>
+        <v>45.08285464501633</v>
       </c>
       <c r="G14">
-        <v>1.803724263259358</v>
+        <v>1.985716516292694</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.61834665463747</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.737328169689571</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>66.60919347507476</v>
+        <v>37.68090457307417</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.86564787123224</v>
       </c>
       <c r="M14">
-        <v>43.11160813886796</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.73134694970839</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.54792095404065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.594930831177956</v>
+        <v>18.63264217289013</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.64170455059707</v>
+        <v>3.298360719533495</v>
       </c>
       <c r="E15">
-        <v>6.754518326295667</v>
+        <v>25.64484998305228</v>
       </c>
       <c r="F15">
-        <v>82.13685022479727</v>
+        <v>44.80267062368633</v>
       </c>
       <c r="G15">
-        <v>1.808724642766237</v>
+        <v>1.987393140610727</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.67427343413577</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.749562536606089</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>66.07224270075848</v>
+        <v>37.46491480018582</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.80381988209055</v>
       </c>
       <c r="M15">
-        <v>42.76648516487296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.64523798644219</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.32939888449557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.420749551675004</v>
+        <v>18.09141638801259</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.05359456768217</v>
+        <v>3.34695128056662</v>
       </c>
       <c r="E16">
-        <v>6.597779605498815</v>
+        <v>25.01339350511519</v>
       </c>
       <c r="F16">
-        <v>78.03434707669952</v>
+        <v>43.242050072095</v>
       </c>
       <c r="G16">
-        <v>1.836188514023479</v>
+        <v>1.996981216474576</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.00539518029746</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.821977821368013</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>63.05776386869572</v>
+        <v>36.21305980658173</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.44552273094036</v>
       </c>
       <c r="M16">
-        <v>40.82782676653608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.14567109465397</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.24116841137778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.309373807942652</v>
+        <v>17.75585504150724</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.707062906051901</v>
+        <v>3.379030452144558</v>
       </c>
       <c r="E17">
-        <v>6.508739518849473</v>
+        <v>24.62323901056472</v>
       </c>
       <c r="F17">
-        <v>75.60561007388189</v>
+        <v>42.32955203889689</v>
       </c>
       <c r="G17">
-        <v>1.852178740503145</v>
+        <v>2.002852221037123</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.21618930439569</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.868158927957248</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>61.24936462020503</v>
+        <v>35.43210339715161</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.22205702553994</v>
       </c>
       <c r="M17">
-        <v>39.66402855870255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.83361225745931</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.57911025218429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.243773549939955</v>
+        <v>17.5615426554247</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.511739687853925</v>
+        <v>3.398239576856986</v>
       </c>
       <c r="E18">
-        <v>6.459597654289984</v>
+        <v>24.3977347016643</v>
       </c>
       <c r="F18">
-        <v>74.2334444852933</v>
+        <v>41.80472884639542</v>
       </c>
       <c r="G18">
-        <v>1.86112632216149</v>
+        <v>2.006227598912085</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.33968258157318</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.895271697896576</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>60.2194545380884</v>
+        <v>34.97799802546417</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.09214044720025</v>
       </c>
       <c r="M18">
-        <v>39.00100283659911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.65201783615841</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.19933668123354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.221307406315149</v>
+        <v>17.4955273072055</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.446195734735948</v>
+        <v>3.404866964405139</v>
       </c>
       <c r="E19">
-        <v>6.443273501046591</v>
+        <v>24.32118773355184</v>
       </c>
       <c r="F19">
-        <v>73.7725227285904</v>
+        <v>41.62702382371667</v>
       </c>
       <c r="G19">
-        <v>1.864118063897056</v>
+        <v>2.007370421151101</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.38183952145666</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.90453893207911</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>59.87212964578445</v>
+        <v>34.82338749674104</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.04791154568804</v>
       </c>
       <c r="M19">
-        <v>38.77737150141558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.59016661759337</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.07091864274936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.32139167346882</v>
+        <v>17.79171126051111</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.743514464835176</v>
+        <v>3.375535493295597</v>
       </c>
       <c r="E20">
-        <v>6.517993216347495</v>
+        <v>24.66488363295911</v>
       </c>
       <c r="F20">
-        <v>75.86144238129624</v>
+        <v>42.42668364710956</v>
       </c>
       <c r="G20">
-        <v>1.850503657599754</v>
+        <v>2.002227449952776</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.19350639325837</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.863184065822976</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>61.44071978054362</v>
+        <v>35.5157435308961</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.24598782920621</v>
       </c>
       <c r="M20">
-        <v>39.78720012583742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.86704833309884</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.64947911233127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.638379097770262</v>
+        <v>18.77129238979847</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.79922123263218</v>
+        <v>3.286585162249054</v>
       </c>
       <c r="E21">
-        <v>6.797748010190354</v>
+        <v>25.80709216925705</v>
       </c>
       <c r="F21">
-        <v>83.23096753801278</v>
+        <v>45.21715623594448</v>
       </c>
       <c r="G21">
-        <v>1.801301870824275</v>
+        <v>1.984912074234998</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.59174802590351</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.731507403251167</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>66.86803799331619</v>
+        <v>37.78423393791425</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.89522712669861</v>
       </c>
       <c r="M21">
-        <v>43.27795576997981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.77253245809673</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.6526701018517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.828551046272773</v>
+        <v>19.40011741721666</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.55833586081101</v>
+        <v>3.236954181712385</v>
       </c>
       <c r="E22">
-        <v>7.013959989840458</v>
+        <v>26.54564940100024</v>
       </c>
       <c r="F22">
-        <v>88.47197356548629</v>
+        <v>47.10903352222326</v>
       </c>
       <c r="G22">
-        <v>1.765156190384027</v>
+        <v>1.973524693796388</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.23421177505617</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.652938893778877</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>70.6350451878503</v>
+        <v>39.2263580130161</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.30809431336964</v>
       </c>
       <c r="M22">
-        <v>45.69687422657572</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.34671839338687</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.12855472436427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.728839045670798</v>
+        <v>19.06552300614602</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.14450115276999</v>
+        <v>3.26256897265027</v>
       </c>
       <c r="E23">
-        <v>6.894437469534538</v>
+        <v>26.15208924989484</v>
       </c>
       <c r="F23">
-        <v>85.62162782856745</v>
+        <v>46.09988126603945</v>
       </c>
       <c r="G23">
-        <v>1.784936194352363</v>
+        <v>1.979611907586909</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.42063166987909</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.694004207481814</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>68.59540716169388</v>
+        <v>38.46019307644607</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.08873953416005</v>
       </c>
       <c r="M23">
-        <v>44.38763656931973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.04181412867072</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.34122556037286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.315963255098942</v>
+        <v>17.77550500650626</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.727022847033281</v>
+        <v>3.377113195078763</v>
       </c>
       <c r="E24">
-        <v>6.513803363947805</v>
+        <v>24.64605985275107</v>
       </c>
       <c r="F24">
-        <v>75.74570712486099</v>
+        <v>42.38277115637498</v>
       </c>
       <c r="G24">
-        <v>1.851261711830176</v>
+        <v>2.002509908175744</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.2037542880247</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.865431470379352</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>61.35417880877365</v>
+        <v>35.4779458186088</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.23517321721709</v>
       </c>
       <c r="M24">
-        <v>39.7314960878873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.85193870948339</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.61766272248321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.811945623543518</v>
+        <v>16.33433083370587</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.348768148417342</v>
+        <v>3.529072387565421</v>
       </c>
       <c r="E25">
-        <v>6.182025893367474</v>
+        <v>22.97917693139884</v>
       </c>
       <c r="F25">
-        <v>66.02919514748268</v>
+        <v>38.55125047546078</v>
       </c>
       <c r="G25">
-        <v>1.913371914484174</v>
+        <v>2.027176016747619</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.13468418899292</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.071322040829048</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>53.92652189729398</v>
+        <v>32.07170172105675</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.26116809098669</v>
       </c>
       <c r="M25">
-        <v>34.9470076158934</v>
+        <v>12.80916159185748</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>29.86343786741615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.23147499470474</v>
+        <v>7.669615026010391</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.658600909482253</v>
+        <v>3.962376575755634</v>
       </c>
       <c r="E2">
-        <v>21.70920380499187</v>
+        <v>29.87611812650352</v>
       </c>
       <c r="F2">
-        <v>35.72044331167493</v>
+        <v>18.06599582102486</v>
       </c>
       <c r="G2">
-        <v>2.045560503358504</v>
+        <v>2.057261502968297</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.89341006102793</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>29.38622105542813</v>
+        <v>19.19403399339835</v>
       </c>
       <c r="L2">
-        <v>8.494332350326907</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.0973623419965</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.8616223627686</v>
+        <v>13.80019472658932</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.45987373807732</v>
+        <v>7.222274570693286</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.754961055891764</v>
+        <v>3.845994694813675</v>
       </c>
       <c r="E3">
-        <v>20.82047681214517</v>
+        <v>27.69915675370313</v>
       </c>
       <c r="F3">
-        <v>33.79602222593946</v>
+        <v>17.43441709717601</v>
       </c>
       <c r="G3">
-        <v>2.058261856988153</v>
+        <v>2.063460226795757</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.28236537696485</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.44978198078032</v>
+        <v>18.06058204217698</v>
       </c>
       <c r="L3">
-        <v>7.942160862410209</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.60805997200228</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.52119462146433</v>
+        <v>13.5658983776066</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.9752160251916</v>
+        <v>6.932646544248791</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.817758634542328</v>
+        <v>3.772432829488877</v>
       </c>
       <c r="E4">
-        <v>20.2609116945</v>
+        <v>26.29975584980214</v>
       </c>
       <c r="F4">
-        <v>32.61291138616467</v>
+        <v>17.06169122688497</v>
       </c>
       <c r="G4">
-        <v>2.066209016892594</v>
+        <v>2.067362343803349</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.52716906441152</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.20184354558861</v>
+        <v>17.32894485454074</v>
       </c>
       <c r="L4">
-        <v>7.586727572372995</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.30495168654474</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.70705941822315</v>
+        <v>13.44152267344001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.77518133211123</v>
+        <v>6.810888063800391</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.844189920480909</v>
+        <v>3.741956011795735</v>
       </c>
       <c r="E5">
-        <v>20.02943264315971</v>
+        <v>25.71336845984319</v>
       </c>
       <c r="F5">
-        <v>32.13076735456054</v>
+        <v>16.91371752200758</v>
       </c>
       <c r="G5">
-        <v>2.069488757981917</v>
+        <v>2.0689777623047</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.62848136772874</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.6782922201457</v>
+        <v>17.02187865818012</v>
       </c>
       <c r="L5">
-        <v>7.437719536865882</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.18089647156286</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.37775098527309</v>
+        <v>13.39558045476561</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.7418196719331</v>
+        <v>6.790445767028929</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.848627728637183</v>
+        <v>3.736866078277345</v>
       </c>
       <c r="E6">
-        <v>19.99078913993428</v>
+        <v>25.61501601491787</v>
       </c>
       <c r="F6">
-        <v>32.05071967657631</v>
+        <v>16.889386661215</v>
       </c>
       <c r="G6">
-        <v>2.070035952034709</v>
+        <v>2.069247559020313</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.64539935076973</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.59044601611568</v>
+        <v>16.97035418641867</v>
       </c>
       <c r="L6">
-        <v>7.41272422418717</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.16026922642833</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.32322580499217</v>
+        <v>13.38823322855821</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.97252823639131</v>
+        <v>6.931019534614927</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.818111777940256</v>
+        <v>3.772023791573825</v>
       </c>
       <c r="E7">
-        <v>20.25780378295135</v>
+        <v>26.29191333388895</v>
       </c>
       <c r="F7">
-        <v>32.60640852121737</v>
+        <v>17.0596795856523</v>
       </c>
       <c r="G7">
-        <v>2.066253076907452</v>
+        <v>2.067384026146381</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.52852904815096</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.19484372148091</v>
+        <v>17.32483966401838</v>
       </c>
       <c r="L7">
-        <v>7.584734914240538</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.30328060900758</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.70260795382522</v>
+        <v>13.44088410208627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.96779675037064</v>
+        <v>7.518491020970387</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.691023895746794</v>
+        <v>3.9227011166399</v>
       </c>
       <c r="E8">
-        <v>21.40566332259322</v>
+        <v>29.13830852036612</v>
       </c>
       <c r="F8">
-        <v>35.0573935534612</v>
+        <v>17.84517703633704</v>
       </c>
       <c r="G8">
-        <v>2.049911561037424</v>
+        <v>2.05937957836439</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.02630975810497</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>28.73065248109886</v>
+        <v>18.81065308398221</v>
       </c>
       <c r="L8">
-        <v>8.307317562208222</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.92928086691802</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.39770797392345</v>
+        <v>13.71527659184059</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.82642179047883</v>
+        <v>8.551047743781169</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.474759481408255</v>
+        <v>4.200361634053212</v>
       </c>
       <c r="E9">
-        <v>23.54699067551579</v>
+        <v>34.23913791994448</v>
       </c>
       <c r="F9">
-        <v>39.84306484282047</v>
+        <v>19.49969210579058</v>
       </c>
       <c r="G9">
-        <v>2.018847730247336</v>
+        <v>2.044390414734475</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.08662201488884</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.2458009072879</v>
+        <v>21.44007304556138</v>
       </c>
       <c r="L9">
-        <v>9.596752790273074</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.13088477602098</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.7868960579233</v>
+        <v>14.41407465901593</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.12952957007642</v>
+        <v>9.236357819812577</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.343398878513013</v>
+        <v>4.392180791692243</v>
       </c>
       <c r="E10">
-        <v>25.05776943154481</v>
+        <v>37.71933251637675</v>
       </c>
       <c r="F10">
-        <v>43.34618595248515</v>
+        <v>20.77869014459484</v>
       </c>
       <c r="G10">
-        <v>1.996310914052014</v>
+        <v>2.033725350510819</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.42033454314828</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>36.30151617019203</v>
+        <v>23.19902984421297</v>
       </c>
       <c r="L10">
-        <v>10.47083681612546</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.18099742741069</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.31686049676589</v>
+        <v>15.03276787575619</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.70848676904079</v>
+        <v>9.532232028040411</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.291883767878279</v>
+        <v>4.476575829826603</v>
       </c>
       <c r="E11">
-        <v>25.73357442912741</v>
+        <v>39.25100529874766</v>
       </c>
       <c r="F11">
-        <v>45.02928693859116</v>
+        <v>21.37347421150608</v>
       </c>
       <c r="G11">
-        <v>1.986037235647943</v>
+        <v>2.028928028397153</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.12164508613035</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>37.63965413115349</v>
+        <v>23.96221611100836</v>
       </c>
       <c r="L11">
-        <v>10.85383958252398</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>14.71490352853658</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.50614133664718</v>
+        <v>15.33843627390197</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.92576393714927</v>
+        <v>9.641996707600315</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.273808315741416</v>
+        <v>4.508106750408655</v>
       </c>
       <c r="E12">
-        <v>25.98809429214166</v>
+        <v>39.82422186399585</v>
       </c>
       <c r="F12">
-        <v>45.6800502728733</v>
+        <v>21.60053932515879</v>
       </c>
       <c r="G12">
-        <v>1.982135502601154</v>
+        <v>2.027117252850113</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.00910184656131</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>38.13938729858016</v>
+        <v>24.24596537357356</v>
       </c>
       <c r="L12">
-        <v>10.99689756112918</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.91404647512984</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.01372777326298</v>
+        <v>15.45777231653279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.87905573355307</v>
+        <v>9.618458017675822</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.277632975222829</v>
+        <v>4.501335247326217</v>
       </c>
       <c r="E13">
-        <v>25.93333594531952</v>
+        <v>39.70106110076011</v>
       </c>
       <c r="F13">
-        <v>45.5399584502883</v>
+        <v>21.551555311216</v>
       </c>
       <c r="G13">
-        <v>1.982976459049062</v>
+        <v>2.027507008087948</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.03331612348187</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>38.03206329526732</v>
+        <v>24.18508730300242</v>
       </c>
       <c r="L13">
-        <v>10.9661731547338</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.87128961188566</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.9044525251292</v>
+        <v>15.4319099920149</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.72640128609747</v>
+        <v>9.541308005631015</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.290366378429381</v>
+        <v>4.479178549952278</v>
       </c>
       <c r="E14">
-        <v>25.75454011160476</v>
+        <v>39.29829658723632</v>
       </c>
       <c r="F14">
-        <v>45.08285464501633</v>
+        <v>21.39211828565682</v>
       </c>
       <c r="G14">
-        <v>1.985716516292694</v>
+        <v>2.028778949120198</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.11237519904864</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>37.68090457307417</v>
+        <v>23.98566517760176</v>
       </c>
       <c r="L14">
-        <v>10.86564787123224</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>14.73134694970839</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.54792095404065</v>
+        <v>15.34818164920462</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.63264217289013</v>
+        <v>9.493755199094446</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.298360719533495</v>
+        <v>4.465550814594115</v>
       </c>
       <c r="E15">
-        <v>25.64484998305228</v>
+        <v>39.05072618618721</v>
       </c>
       <c r="F15">
-        <v>44.80267062368633</v>
+        <v>21.29469702541752</v>
       </c>
       <c r="G15">
-        <v>1.987393140610727</v>
+        <v>2.029558752434372</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.16087246309178</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>37.46491480018582</v>
+        <v>23.86283150034298</v>
       </c>
       <c r="L15">
-        <v>10.80381988209055</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>14.64523798644219</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.32939888449557</v>
+        <v>15.2973657453899</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.09141638801259</v>
+        <v>9.216702731939359</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.34695128056662</v>
+        <v>4.386606335988682</v>
       </c>
       <c r="E16">
-        <v>25.01339350511519</v>
+        <v>37.61824844926191</v>
       </c>
       <c r="F16">
-        <v>43.242050072095</v>
+        <v>20.74007692531838</v>
       </c>
       <c r="G16">
-        <v>1.996981216474576</v>
+        <v>2.034039798079367</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.43993742657677</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>36.21305980658173</v>
+        <v>23.14841488388067</v>
       </c>
       <c r="L16">
-        <v>10.44552273094036</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.14567109465397</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.24116841137778</v>
+        <v>15.01328787989698</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.75585504150724</v>
+        <v>9.042676946181391</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.379030452144558</v>
+        <v>4.33743082276701</v>
       </c>
       <c r="E17">
-        <v>24.62323901056472</v>
+        <v>36.7266935515392</v>
       </c>
       <c r="F17">
-        <v>42.32955203889689</v>
+        <v>20.4031213531368</v>
       </c>
       <c r="G17">
-        <v>2.002852221037123</v>
+        <v>2.036801361922072</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.61221538034747</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>35.43210339715161</v>
+        <v>22.7007135354644</v>
       </c>
       <c r="L17">
-        <v>10.22205702553994</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.83361225745931</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.57911025218429</v>
+        <v>14.84529184227031</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.5615426554247</v>
+        <v>8.941086838608017</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.398239576856986</v>
+        <v>4.308877534836297</v>
       </c>
       <c r="E18">
-        <v>24.3977347016643</v>
+        <v>36.20900822480233</v>
       </c>
       <c r="F18">
-        <v>41.80472884639542</v>
+        <v>20.21053302482135</v>
       </c>
       <c r="G18">
-        <v>2.006227598912085</v>
+        <v>2.038394976409975</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.71172445288005</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>34.97799802546417</v>
+        <v>22.43972260588162</v>
       </c>
       <c r="L18">
-        <v>10.09214044720025</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.65201783615841</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.19933668123354</v>
+        <v>14.75093878029384</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.4955273072055</v>
+        <v>8.906433260264006</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.404866964405139</v>
+        <v>4.299164229366011</v>
       </c>
       <c r="E19">
-        <v>24.32118773355184</v>
+        <v>36.03287223669987</v>
       </c>
       <c r="F19">
-        <v>41.62702382371667</v>
+        <v>20.1455369550259</v>
       </c>
       <c r="G19">
-        <v>2.007370421151101</v>
+        <v>2.038935501765994</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.74549059808196</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>34.82338749674104</v>
+        <v>22.35075537516532</v>
       </c>
       <c r="L19">
-        <v>10.04791154568804</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.59016661759337</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.07091864274936</v>
+        <v>14.71937987806642</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.79171126051111</v>
+        <v>9.061356988396643</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.375535493295597</v>
+        <v>4.342693585065605</v>
       </c>
       <c r="E20">
-        <v>24.66488363295911</v>
+        <v>36.82210265447923</v>
       </c>
       <c r="F20">
-        <v>42.42668364710956</v>
+        <v>20.43886497033927</v>
       </c>
       <c r="G20">
-        <v>2.002227449952776</v>
+        <v>2.036506860182252</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.59383318947306</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>35.5157435308961</v>
+        <v>22.74873238433351</v>
       </c>
       <c r="L20">
-        <v>10.24598782920621</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.86704833309884</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.64947911233127</v>
+        <v>14.86293923837945</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.77129238979847</v>
+        <v>9.564030543936731</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.286585162249054</v>
+        <v>4.485698228816283</v>
       </c>
       <c r="E21">
-        <v>25.80709216925705</v>
+        <v>39.41677746290348</v>
       </c>
       <c r="F21">
-        <v>45.21715623594448</v>
+        <v>21.4388990946199</v>
       </c>
       <c r="G21">
-        <v>1.984912074234998</v>
+        <v>2.02840520653791</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.08913890469304</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>37.78423393791425</v>
+        <v>24.04438225090617</v>
       </c>
       <c r="L21">
-        <v>10.89522712669861</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.77253245809673</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.6526701018517</v>
+        <v>15.3726765297776</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.40011741721666</v>
+        <v>9.879293667827215</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.236954181712385</v>
+        <v>4.576661746695843</v>
       </c>
       <c r="E22">
-        <v>26.54564940100024</v>
+        <v>41.0732829409472</v>
       </c>
       <c r="F22">
-        <v>47.10903352222326</v>
+        <v>22.10318060590678</v>
       </c>
       <c r="G22">
-        <v>1.973524693796388</v>
+        <v>2.023143435690571</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9.762543732002898</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>39.2263580130161</v>
+        <v>24.86058953886951</v>
       </c>
       <c r="L22">
-        <v>11.30809431336964</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.34671839338687</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.12855472436427</v>
+        <v>15.72677349986627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.06552300614602</v>
+        <v>9.712242161674586</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.26256897265027</v>
+        <v>4.528345980016744</v>
       </c>
       <c r="E23">
-        <v>26.15208924989484</v>
+        <v>40.19254577612394</v>
       </c>
       <c r="F23">
-        <v>46.09988126603945</v>
+        <v>21.74766130373265</v>
       </c>
       <c r="G23">
-        <v>1.979611907586909</v>
+        <v>2.025949410077325</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.936580421186605</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>38.46019307644607</v>
+        <v>24.42773612311013</v>
       </c>
       <c r="L23">
-        <v>11.08873953416005</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.04181412867072</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.34122556037286</v>
+        <v>15.53583265509419</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.77550500650626</v>
+        <v>9.05291653965906</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.377113195078763</v>
+        <v>4.34031516622739</v>
       </c>
       <c r="E24">
-        <v>24.64605985275107</v>
+        <v>36.77898418711101</v>
       </c>
       <c r="F24">
-        <v>42.38277115637498</v>
+        <v>20.42270175246059</v>
       </c>
       <c r="G24">
-        <v>2.002509908175744</v>
+        <v>2.036639985727826</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.60214232691443</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>35.4779458186088</v>
+        <v>22.72703428509845</v>
       </c>
       <c r="L24">
-        <v>10.23517321721709</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.85193870948339</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.61766272248321</v>
+        <v>14.85495391204106</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.33433083370587</v>
+        <v>8.284578856467229</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.529072387565421</v>
+        <v>4.127300919647771</v>
       </c>
       <c r="E25">
-        <v>22.97917693139884</v>
+        <v>32.90820360956629</v>
       </c>
       <c r="F25">
-        <v>38.55125047546078</v>
+        <v>19.04058365729132</v>
       </c>
       <c r="G25">
-        <v>2.027176016747619</v>
+        <v>2.048377819761899</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.33633924807922</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>32.07170172105675</v>
+        <v>20.7592178105682</v>
       </c>
       <c r="L25">
-        <v>9.26116809098669</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>12.80916159185748</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.86343786741615</v>
+        <v>14.20701950003221</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.669615026010391</v>
+        <v>6.369083150264215</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.962376575755634</v>
+        <v>4.181045905317358</v>
       </c>
       <c r="E2">
-        <v>29.87611812650352</v>
+        <v>16.52620225244815</v>
       </c>
       <c r="F2">
-        <v>18.06599582102486</v>
+        <v>21.82287381936986</v>
       </c>
       <c r="G2">
-        <v>2.057261502968297</v>
+        <v>3.608441093530877</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.89341006102793</v>
+        <v>18.6212245218672</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.19403399339835</v>
+        <v>11.83129128825535</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.80019472658932</v>
+        <v>19.40173363499445</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.222274570693286</v>
+        <v>6.222685135686072</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.845994694813675</v>
+        <v>4.139874056522111</v>
       </c>
       <c r="E3">
-        <v>27.69915675370313</v>
+        <v>15.5865753296442</v>
       </c>
       <c r="F3">
-        <v>17.43441709717601</v>
+        <v>21.81140239631509</v>
       </c>
       <c r="G3">
-        <v>2.063460226795757</v>
+        <v>3.61066802048957</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.28236537696485</v>
+        <v>18.74925458363776</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.06058204217698</v>
+        <v>11.24110303337065</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.5658983776066</v>
+        <v>19.4607630822676</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.932646544248791</v>
+        <v>6.131641048875076</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.772432829488877</v>
+        <v>4.114164890604886</v>
       </c>
       <c r="E4">
-        <v>26.29975584980214</v>
+        <v>14.98470727304621</v>
       </c>
       <c r="F4">
-        <v>17.06169122688497</v>
+        <v>21.81276049557438</v>
       </c>
       <c r="G4">
-        <v>2.067362343803349</v>
+        <v>3.612105768788702</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.52716906441152</v>
+        <v>18.83181888369029</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.32894485454074</v>
+        <v>10.86039897957681</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.44152267344001</v>
+        <v>19.5034544111015</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.810888063800391</v>
+        <v>6.094299572387109</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.741956011795735</v>
+        <v>4.103586057230975</v>
       </c>
       <c r="E5">
-        <v>25.71336845984319</v>
+        <v>14.73344042902481</v>
       </c>
       <c r="F5">
-        <v>16.91371752200758</v>
+        <v>21.81542157554045</v>
       </c>
       <c r="G5">
-        <v>2.0689777623047</v>
+        <v>3.612709428818296</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.62848136772874</v>
+        <v>18.866461644705</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.02187865818012</v>
+        <v>10.7007553308877</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.39558045476561</v>
+        <v>19.52246301368287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.790445767028929</v>
+        <v>6.088086046287505</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.736866078277345</v>
+        <v>4.101823453669972</v>
       </c>
       <c r="E6">
-        <v>25.61501601491787</v>
+        <v>14.69136424027861</v>
       </c>
       <c r="F6">
-        <v>16.889386661215</v>
+        <v>21.81599055238518</v>
       </c>
       <c r="G6">
-        <v>2.069247559020313</v>
+        <v>3.612810740937765</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.64539935076973</v>
+        <v>18.87227436308498</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.97035418641867</v>
+        <v>10.67397806386422</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.38823322855821</v>
+        <v>19.52571641978081</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.931019534614927</v>
+        <v>6.131138353582328</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.772023791573825</v>
+        <v>4.114022626547362</v>
       </c>
       <c r="E7">
-        <v>26.29191333388895</v>
+        <v>14.98134250279656</v>
       </c>
       <c r="F7">
-        <v>17.0596795856523</v>
+        <v>21.81278785841819</v>
       </c>
       <c r="G7">
-        <v>2.067384026146381</v>
+        <v>3.612113837943497</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.52852904815096</v>
+        <v>18.83228204668042</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.32483966401838</v>
+        <v>10.85826405189587</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.44088410208627</v>
+        <v>19.50370425586435</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.518491020970387</v>
+        <v>6.318874273507927</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.9227011166399</v>
+        <v>4.166942478099771</v>
       </c>
       <c r="E8">
-        <v>29.13830852036612</v>
+        <v>16.20753948384126</v>
       </c>
       <c r="F8">
-        <v>17.84517703633704</v>
+        <v>21.81717238336799</v>
       </c>
       <c r="G8">
-        <v>2.05937957836439</v>
+        <v>3.609194362396368</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.02630975810497</v>
+        <v>18.66455061025835</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.81065308398221</v>
+        <v>11.63165478656741</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.71527659184059</v>
+        <v>19.42074328290598</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.551047743781169</v>
+        <v>6.675772529890628</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.200361634053212</v>
+        <v>4.267058598531326</v>
       </c>
       <c r="E9">
-        <v>34.23913791994448</v>
+        <v>18.501013184956</v>
       </c>
       <c r="F9">
-        <v>19.49969210579058</v>
+        <v>21.8925522302117</v>
       </c>
       <c r="G9">
-        <v>2.044390414734475</v>
+        <v>3.604025097945001</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.08662201488884</v>
+        <v>18.36685798813219</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.44007304556138</v>
+        <v>12.99918838720052</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.41407465901593</v>
+        <v>19.30961761499689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.236357819812577</v>
+        <v>6.928516286912388</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.392180791692243</v>
+        <v>4.33805449058059</v>
       </c>
       <c r="E10">
-        <v>37.71933251637675</v>
+        <v>20.14724419895321</v>
       </c>
       <c r="F10">
-        <v>20.77869014459484</v>
+        <v>21.98865524229661</v>
       </c>
       <c r="G10">
-        <v>2.033725350510819</v>
+        <v>3.600562120330933</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.42033454314828</v>
+        <v>18.16698419320571</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.19902984421297</v>
+        <v>13.90918758900551</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.03276787575619</v>
+        <v>19.25992583507372</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.532232028040411</v>
+        <v>7.040943287505756</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.476575829826603</v>
+        <v>4.369729366127005</v>
       </c>
       <c r="E11">
-        <v>39.25100529874766</v>
+        <v>20.85394232886489</v>
       </c>
       <c r="F11">
-        <v>21.37347421150608</v>
+        <v>22.04116942729239</v>
       </c>
       <c r="G11">
-        <v>2.028928028397153</v>
+        <v>3.59905859290232</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.12164508613035</v>
+        <v>18.08010579589082</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.96221611100836</v>
+        <v>14.30203965011906</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.33843627390197</v>
+        <v>19.24435615835242</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.641996707600315</v>
+        <v>7.083112683071707</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.508106750408655</v>
+        <v>4.381628953372846</v>
       </c>
       <c r="E12">
-        <v>39.82422186399585</v>
+        <v>21.1155218924709</v>
       </c>
       <c r="F12">
-        <v>21.60053932515879</v>
+        <v>22.06231220509725</v>
       </c>
       <c r="G12">
-        <v>2.027117252850113</v>
+        <v>3.598499506276694</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.00910184656131</v>
+        <v>18.04778578141489</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.24596537357356</v>
+        <v>14.44773232748647</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.45777231653279</v>
+        <v>19.23947896156193</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.618458017675822</v>
+        <v>7.074049302337805</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.501335247326217</v>
+        <v>4.379070477407445</v>
       </c>
       <c r="E13">
-        <v>39.70106110076011</v>
+        <v>21.05945377731882</v>
       </c>
       <c r="F13">
-        <v>21.551555311216</v>
+        <v>22.05770298793009</v>
       </c>
       <c r="G13">
-        <v>2.027507008087948</v>
+        <v>3.598619459894441</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.03331612348187</v>
+        <v>18.05472076929073</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.18508730300242</v>
+        <v>14.41649191560178</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.4319099920149</v>
+        <v>19.24048394216189</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.541308005631015</v>
+        <v>7.044420898180396</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.479178549952278</v>
+        <v>4.370710287948438</v>
       </c>
       <c r="E14">
-        <v>39.29829658723632</v>
+        <v>20.87558332781265</v>
       </c>
       <c r="F14">
-        <v>21.39211828565682</v>
+        <v>22.04288372329088</v>
       </c>
       <c r="G14">
-        <v>2.028778949120198</v>
+        <v>3.599012391082378</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.11237519904864</v>
+        <v>18.07743522146741</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.98566517760176</v>
+        <v>14.31408761775771</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.34818164920462</v>
+        <v>19.24393445454349</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.493755199094446</v>
+        <v>7.026218921016674</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.465550814594115</v>
+        <v>4.365576894339926</v>
       </c>
       <c r="E15">
-        <v>39.05072618618721</v>
+        <v>20.76217286599086</v>
       </c>
       <c r="F15">
-        <v>21.29469702541752</v>
+        <v>22.03396988590145</v>
       </c>
       <c r="G15">
-        <v>2.029558752434372</v>
+        <v>3.599254408077416</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.16087246309178</v>
+        <v>18.09142379457907</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.86283150034298</v>
+        <v>14.25096104528357</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.2973657453899</v>
+        <v>19.24618085387827</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.216702731939359</v>
+        <v>6.921114345949092</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.386606335988682</v>
+        <v>4.335971471806712</v>
       </c>
       <c r="E16">
-        <v>37.61824844926191</v>
+        <v>20.10021393021887</v>
       </c>
       <c r="F16">
-        <v>20.74007692531838</v>
+        <v>21.98539968406904</v>
       </c>
       <c r="G16">
-        <v>2.034039798079367</v>
+        <v>3.600661819192049</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.43993742657677</v>
+        <v>18.17274306512958</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.14841488388067</v>
+        <v>13.88308569831544</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.01328787989698</v>
+        <v>19.26108553693826</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.042676946181391</v>
+        <v>6.85595570148731</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.33743082276701</v>
+        <v>4.317646265189416</v>
       </c>
       <c r="E17">
-        <v>36.7266935515392</v>
+        <v>19.68334424546295</v>
       </c>
       <c r="F17">
-        <v>20.4031213531368</v>
+        <v>21.95785140120844</v>
       </c>
       <c r="G17">
-        <v>2.036801361922072</v>
+        <v>3.601543568301298</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.61221538034747</v>
+        <v>18.22366391273087</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.7007135354644</v>
+        <v>13.65197067426188</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.84529184227031</v>
+        <v>19.27203623416185</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.941086838608017</v>
+        <v>6.818240480913349</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.308877534836297</v>
+        <v>4.307047918156818</v>
       </c>
       <c r="E18">
-        <v>36.20900822480233</v>
+        <v>19.43959958096881</v>
       </c>
       <c r="F18">
-        <v>20.21053302482135</v>
+        <v>21.9428349598142</v>
       </c>
       <c r="G18">
-        <v>2.038394976409975</v>
+        <v>3.60205748852097</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.71172445288005</v>
+        <v>18.25333315248541</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.43972260588162</v>
+        <v>13.5170539316951</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.75093878029384</v>
+        <v>19.27899661250244</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.906433260264006</v>
+        <v>6.805431136269722</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.299164229366011</v>
+        <v>4.303449682826948</v>
       </c>
       <c r="E19">
-        <v>36.03287223669987</v>
+        <v>19.35638855338162</v>
       </c>
       <c r="F19">
-        <v>20.1455369550259</v>
+        <v>21.937893172327</v>
       </c>
       <c r="G19">
-        <v>2.038935501765994</v>
+        <v>3.602232656134023</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.74549059808196</v>
+        <v>18.26344415395171</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.35075537516532</v>
+        <v>13.47103366628092</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.71937987806642</v>
+        <v>19.28146672041185</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.061356988396643</v>
+        <v>6.862916834909637</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.342693585065605</v>
+        <v>4.319603076647803</v>
       </c>
       <c r="E20">
-        <v>36.82210265447923</v>
+        <v>19.72813160204963</v>
       </c>
       <c r="F20">
-        <v>20.43886497033927</v>
+        <v>21.96069825688308</v>
       </c>
       <c r="G20">
-        <v>2.036506860182252</v>
+        <v>3.60144900523858</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.59383318947306</v>
+        <v>18.21820389824815</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.74873238433351</v>
+        <v>13.67677904158615</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.86293923837945</v>
+        <v>19.27080196383158</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.564030543936731</v>
+        <v>7.053134738360152</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.485698228816283</v>
+        <v>4.373168500584478</v>
       </c>
       <c r="E21">
-        <v>39.41677746290348</v>
+        <v>20.9297539654134</v>
       </c>
       <c r="F21">
-        <v>21.4388990946199</v>
+        <v>22.04720246801111</v>
       </c>
       <c r="G21">
-        <v>2.02840520653791</v>
+        <v>3.59889669949615</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.08913890469304</v>
+        <v>18.0707477454758</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.04438225090617</v>
+        <v>14.34424986031889</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.3726765297776</v>
+        <v>19.24289325583557</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.879293667827215</v>
+        <v>7.175081200908864</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.576661746695843</v>
+        <v>4.407620370835025</v>
       </c>
       <c r="E22">
-        <v>41.0732829409472</v>
+        <v>21.679941937827</v>
       </c>
       <c r="F22">
-        <v>22.10318060590678</v>
+        <v>22.11105809836445</v>
       </c>
       <c r="G22">
-        <v>2.023143435690571</v>
+        <v>3.5972884349617</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.762543732002898</v>
+        <v>17.97774993069459</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.86058953886951</v>
+        <v>14.76256402770261</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.72677349986627</v>
+        <v>19.23059380309178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.712242161674586</v>
+        <v>7.110224892778916</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.528345980016744</v>
+        <v>4.389285471412766</v>
       </c>
       <c r="E23">
-        <v>40.19254577612394</v>
+        <v>21.28275684322951</v>
       </c>
       <c r="F23">
-        <v>21.74766130373265</v>
+        <v>22.07631065132975</v>
       </c>
       <c r="G23">
-        <v>2.025949410077325</v>
+        <v>3.598141342020423</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.936580421186605</v>
+        <v>18.0270768564363</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.42773612311013</v>
+        <v>14.54095117753526</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.53583265509419</v>
+        <v>19.23661256914736</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.05291653965906</v>
+        <v>6.859770496763884</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.34031516622739</v>
+        <v>4.31871859777553</v>
       </c>
       <c r="E24">
-        <v>36.77898418711101</v>
+        <v>19.70789595202149</v>
       </c>
       <c r="F24">
-        <v>20.42270175246059</v>
+        <v>21.95940863401739</v>
       </c>
       <c r="G24">
-        <v>2.036639985727826</v>
+        <v>3.601491735417175</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.60214232691443</v>
+        <v>18.22067114273992</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.72703428509845</v>
+        <v>13.6655695477242</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.85495391204106</v>
+        <v>19.27135790743702</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.284578856467229</v>
+        <v>6.580706845584647</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.127300919647771</v>
+        <v>4.240400674237723</v>
       </c>
       <c r="E25">
-        <v>32.90820360956629</v>
+        <v>17.8571438889858</v>
       </c>
       <c r="F25">
-        <v>19.04058365729132</v>
+        <v>21.86500014378401</v>
       </c>
       <c r="G25">
-        <v>2.048377819761899</v>
+        <v>3.605364427373635</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.33633924807922</v>
+        <v>18.44406896116215</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.7592178105682</v>
+        <v>12.64564317716832</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.20701950003221</v>
+        <v>19.33410408350478</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.369083150264215</v>
+        <v>7.669615026010374</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.181045905317358</v>
+        <v>3.962376575755681</v>
       </c>
       <c r="E2">
-        <v>16.52620225244815</v>
+        <v>29.87611812650355</v>
       </c>
       <c r="F2">
-        <v>21.82287381936986</v>
+        <v>18.06599582102479</v>
       </c>
       <c r="G2">
-        <v>3.608441093530877</v>
+        <v>2.057261502967897</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.6212245218672</v>
+        <v>11.8934100610279</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.83129128825535</v>
+        <v>19.19403399339836</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.40173363499445</v>
+        <v>13.80019472658926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.222685135686072</v>
+        <v>7.222274570693216</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.139874056522111</v>
+        <v>3.845994694813724</v>
       </c>
       <c r="E3">
-        <v>15.5865753296442</v>
+        <v>27.69915675370319</v>
       </c>
       <c r="F3">
-        <v>21.81140239631509</v>
+        <v>17.43441709717604</v>
       </c>
       <c r="G3">
-        <v>3.61066802048957</v>
+        <v>2.063460226795758</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.74925458363776</v>
+        <v>12.28236537696488</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.24110303337065</v>
+        <v>18.06058204217696</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.4607630822676</v>
+        <v>13.56589837760666</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.131641048875076</v>
+        <v>6.932646544248791</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.114164890604886</v>
+        <v>3.772432829488984</v>
       </c>
       <c r="E4">
-        <v>14.98470727304621</v>
+        <v>26.29975584980211</v>
       </c>
       <c r="F4">
-        <v>21.81276049557438</v>
+        <v>17.06169122688481</v>
       </c>
       <c r="G4">
-        <v>3.612105768788702</v>
+        <v>2.067362343803616</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.83181888369029</v>
+        <v>12.52716906441135</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.86039897957681</v>
+        <v>17.32894485454076</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.5034544111015</v>
+        <v>13.4415226734399</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.094299572387109</v>
+        <v>6.810888063800393</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.103586057230975</v>
+        <v>3.741956011795848</v>
       </c>
       <c r="E5">
-        <v>14.73344042902481</v>
+        <v>25.71336845984325</v>
       </c>
       <c r="F5">
-        <v>21.81542157554045</v>
+        <v>16.91371752200739</v>
       </c>
       <c r="G5">
-        <v>3.612709428818296</v>
+        <v>2.068977762304566</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.866461644705</v>
+        <v>12.62848136772866</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.7007553308877</v>
+        <v>17.02187865818019</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.52246301368287</v>
+        <v>13.39558045476543</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.088086046287505</v>
+        <v>6.790445767028953</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.101823453669972</v>
+        <v>3.73686607827743</v>
       </c>
       <c r="E6">
-        <v>14.69136424027861</v>
+        <v>25.61501601491784</v>
       </c>
       <c r="F6">
-        <v>21.81599055238518</v>
+        <v>16.88938666121476</v>
       </c>
       <c r="G6">
-        <v>3.612810740937765</v>
+        <v>2.069247559020313</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.87227436308498</v>
+        <v>12.64539935076957</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.67397806386422</v>
+        <v>16.97035418641874</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.52571641978081</v>
+        <v>13.38823322855805</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.131138353582328</v>
+        <v>6.931019534614963</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.114022626547362</v>
+        <v>3.772023791573707</v>
       </c>
       <c r="E7">
-        <v>14.98134250279656</v>
+        <v>26.29191333388893</v>
       </c>
       <c r="F7">
-        <v>21.81278785841819</v>
+        <v>17.05967958565225</v>
       </c>
       <c r="G7">
-        <v>3.612113837943497</v>
+        <v>2.06738402614638</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.83228204668042</v>
+        <v>12.52852904815089</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.85826405189587</v>
+        <v>17.32483966401838</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.50370425586435</v>
+        <v>13.44088410208619</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.318874273507927</v>
+        <v>7.518491020970414</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.166942478099771</v>
+        <v>3.922701116639984</v>
       </c>
       <c r="E8">
-        <v>16.20753948384126</v>
+        <v>29.13830852036615</v>
       </c>
       <c r="F8">
-        <v>21.81717238336799</v>
+        <v>17.84517703633699</v>
       </c>
       <c r="G8">
-        <v>3.609194362396368</v>
+        <v>2.059379578364658</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.66455061025835</v>
+        <v>12.0263097581049</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.63165478656741</v>
+        <v>18.81065308398223</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.42074328290598</v>
+        <v>13.71527659184052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.675772529890628</v>
+        <v>8.551047743781153</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.267058598531326</v>
+        <v>4.200361634053188</v>
       </c>
       <c r="E9">
-        <v>18.501013184956</v>
+        <v>34.23913791994441</v>
       </c>
       <c r="F9">
-        <v>21.8925522302117</v>
+        <v>19.49969210579055</v>
       </c>
       <c r="G9">
-        <v>3.604025097945001</v>
+        <v>2.044390414734207</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.36685798813219</v>
+        <v>11.08662201488887</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.99918838720052</v>
+        <v>21.44007304556137</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.30961761499689</v>
+        <v>14.41407465901594</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.928516286912388</v>
+        <v>9.236357819812577</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.33805449058059</v>
+        <v>4.392180791692375</v>
       </c>
       <c r="E10">
-        <v>20.14724419895321</v>
+        <v>37.71933251637678</v>
       </c>
       <c r="F10">
-        <v>21.98865524229661</v>
+        <v>20.77869014459482</v>
       </c>
       <c r="G10">
-        <v>3.600562120330933</v>
+        <v>2.033725350510684</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.16698419320571</v>
+        <v>10.42033454314818</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.90918758900551</v>
+        <v>23.19902984421299</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.25992583507372</v>
+        <v>15.03276787575614</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.040943287505756</v>
+        <v>9.532232028040379</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.369729366127005</v>
+        <v>4.476575829826652</v>
       </c>
       <c r="E11">
-        <v>20.85394232886489</v>
+        <v>39.25100529874776</v>
       </c>
       <c r="F11">
-        <v>22.04116942729239</v>
+        <v>21.37347421150604</v>
       </c>
       <c r="G11">
-        <v>3.59905859290232</v>
+        <v>2.028928028397153</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.08010579589082</v>
+        <v>10.12164508613024</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.30203965011906</v>
+        <v>23.96221611100845</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.24435615835242</v>
+        <v>15.33843627390191</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.083112683071707</v>
+        <v>9.641996707600226</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.381628953372846</v>
+        <v>4.508106750408696</v>
       </c>
       <c r="E12">
-        <v>21.1155218924709</v>
+        <v>39.82422186399576</v>
       </c>
       <c r="F12">
-        <v>22.06231220509725</v>
+        <v>21.60053932515872</v>
       </c>
       <c r="G12">
-        <v>3.598499506276694</v>
+        <v>2.027117252849979</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.04778578141489</v>
+        <v>10.00910184656134</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.44773232748647</v>
+        <v>24.24596537357356</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.23947896156193</v>
+        <v>15.45777231653271</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.074049302337805</v>
+        <v>9.618458017675778</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.379070477407445</v>
+        <v>4.50133524732629</v>
       </c>
       <c r="E13">
-        <v>21.05945377731882</v>
+        <v>39.70106110076015</v>
       </c>
       <c r="F13">
-        <v>22.05770298793009</v>
+        <v>21.55155531121598</v>
       </c>
       <c r="G13">
-        <v>3.598619459894441</v>
+        <v>2.027507008088082</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.05472076929073</v>
+        <v>10.03331612348194</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.41649191560178</v>
+        <v>24.18508730300247</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.24048394216189</v>
+        <v>15.43190999201489</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.044420898180396</v>
+        <v>9.541308005630917</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.370710287948438</v>
+        <v>4.479178549952255</v>
       </c>
       <c r="E14">
-        <v>20.87558332781265</v>
+        <v>39.29829658723623</v>
       </c>
       <c r="F14">
-        <v>22.04288372329088</v>
+        <v>21.39211828565679</v>
       </c>
       <c r="G14">
-        <v>3.599012391082378</v>
+        <v>2.028778949120063</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.07743522146741</v>
+        <v>10.11237519904874</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.31408761775771</v>
+        <v>23.98566517760175</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.24393445454349</v>
+        <v>15.34818164920456</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.026218921016674</v>
+        <v>9.4937551990944</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.365576894339926</v>
+        <v>4.46555081459413</v>
       </c>
       <c r="E15">
-        <v>20.76217286599086</v>
+        <v>39.05072618618721</v>
       </c>
       <c r="F15">
-        <v>22.03396988590145</v>
+        <v>21.2946970254175</v>
       </c>
       <c r="G15">
-        <v>3.599254408077416</v>
+        <v>2.029558752434238</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.09142379457907</v>
+        <v>10.16087246309182</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.25096104528357</v>
+        <v>23.86283150034306</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.24618085387827</v>
+        <v>15.29736574538985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.921114345949092</v>
+        <v>9.216702731939341</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.335971471806712</v>
+        <v>4.386606335988736</v>
       </c>
       <c r="E16">
-        <v>20.10021393021887</v>
+        <v>37.61824844926196</v>
       </c>
       <c r="F16">
-        <v>21.98539968406904</v>
+        <v>20.74007692531839</v>
       </c>
       <c r="G16">
-        <v>3.600661819192049</v>
+        <v>2.034039798079367</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.17274306512958</v>
+        <v>10.4399374265768</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.88308569831544</v>
+        <v>23.14841488388073</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.26108553693826</v>
+        <v>15.01328787989694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.85595570148731</v>
+        <v>9.042676946181437</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.317646265189416</v>
+        <v>4.337430822766967</v>
       </c>
       <c r="E17">
-        <v>19.68334424546295</v>
+        <v>36.7266935515392</v>
       </c>
       <c r="F17">
-        <v>21.95785140120844</v>
+        <v>20.40312135313684</v>
       </c>
       <c r="G17">
-        <v>3.601543568301298</v>
+        <v>2.036801361921938</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.22366391273087</v>
+        <v>10.61221538034743</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.65197067426188</v>
+        <v>22.70071353546442</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.27203623416185</v>
+        <v>14.8452918422703</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.818240480913349</v>
+        <v>8.941086838608026</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.307047918156818</v>
+        <v>4.308877534836346</v>
       </c>
       <c r="E18">
-        <v>19.43959958096881</v>
+        <v>36.20900822480228</v>
       </c>
       <c r="F18">
-        <v>21.9428349598142</v>
+        <v>20.2105330248213</v>
       </c>
       <c r="G18">
-        <v>3.60205748852097</v>
+        <v>2.038394976410244</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.25333315248541</v>
+        <v>10.71172445288002</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.5170539316951</v>
+        <v>22.43972260588174</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.27899661250244</v>
+        <v>14.75093878029375</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.805431136269722</v>
+        <v>8.906433260263984</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.303449682826948</v>
+        <v>4.299164229366067</v>
       </c>
       <c r="E19">
-        <v>19.35638855338162</v>
+        <v>36.03287223669984</v>
       </c>
       <c r="F19">
-        <v>21.937893172327</v>
+        <v>20.14553695502584</v>
       </c>
       <c r="G19">
-        <v>3.602232656134023</v>
+        <v>2.038935501766128</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.26344415395171</v>
+        <v>10.74549059808189</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.47103366628092</v>
+        <v>22.35075537516541</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.28146672041185</v>
+        <v>14.71937987806632</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.862916834909637</v>
+        <v>9.061356988396597</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.319603076647803</v>
+        <v>4.342693585065507</v>
       </c>
       <c r="E20">
-        <v>19.72813160204963</v>
+        <v>36.82210265447917</v>
       </c>
       <c r="F20">
-        <v>21.96069825688308</v>
+        <v>20.4388649703392</v>
       </c>
       <c r="G20">
-        <v>3.60144900523858</v>
+        <v>2.036506860182254</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.21820389824815</v>
+        <v>10.593833189473</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.67677904158615</v>
+        <v>22.74873238433358</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.27080196383158</v>
+        <v>14.86293923837935</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.053134738360152</v>
+        <v>9.564030543936726</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.373168500584478</v>
+        <v>4.485698228816357</v>
       </c>
       <c r="E21">
-        <v>20.9297539654134</v>
+        <v>39.41677746290353</v>
       </c>
       <c r="F21">
-        <v>22.04720246801111</v>
+        <v>21.43889909461983</v>
       </c>
       <c r="G21">
-        <v>3.59889669949615</v>
+        <v>2.028405206537909</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.0707477454758</v>
+        <v>10.08913890469307</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.34424986031889</v>
+        <v>24.04438225090628</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.24289325583557</v>
+        <v>15.37267652977753</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.175081200908864</v>
+        <v>9.879293667827184</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.407620370835025</v>
+        <v>4.576661746695851</v>
       </c>
       <c r="E22">
-        <v>21.679941937827</v>
+        <v>41.07328294094713</v>
       </c>
       <c r="F22">
-        <v>22.11105809836445</v>
+        <v>22.10318060590679</v>
       </c>
       <c r="G22">
-        <v>3.5972884349617</v>
+        <v>2.023143435690435</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.97774993069459</v>
+        <v>9.762543732002992</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.76256402770261</v>
+        <v>24.86058953886958</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.23059380309178</v>
+        <v>15.72677349986627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.110224892778916</v>
+        <v>9.712242161674618</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.389285471412766</v>
+        <v>4.528345980016725</v>
       </c>
       <c r="E23">
-        <v>21.28275684322951</v>
+        <v>40.19254577612403</v>
       </c>
       <c r="F23">
-        <v>22.07631065132975</v>
+        <v>21.74766130373266</v>
       </c>
       <c r="G23">
-        <v>3.598141342020423</v>
+        <v>2.025949410077593</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.0270768564363</v>
+        <v>9.936580421186534</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.54095117753526</v>
+        <v>24.42773612311018</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.23661256914736</v>
+        <v>15.53583265509416</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.859770496763884</v>
+        <v>9.052916539659124</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.31871859777553</v>
+        <v>4.340315166227342</v>
       </c>
       <c r="E24">
-        <v>19.70789595202149</v>
+        <v>36.77898418711095</v>
       </c>
       <c r="F24">
-        <v>21.95940863401739</v>
+        <v>20.42270175246052</v>
       </c>
       <c r="G24">
-        <v>3.601491735417175</v>
+        <v>2.036639985727827</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.22067114273992</v>
+        <v>10.6021423269143</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.6655695477242</v>
+        <v>22.72703428509849</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.27135790743702</v>
+        <v>14.85495391204099</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.580706845584647</v>
+        <v>8.284578856467279</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.240400674237723</v>
+        <v>4.127300919647746</v>
       </c>
       <c r="E25">
-        <v>17.8571438889858</v>
+        <v>32.90820360956636</v>
       </c>
       <c r="F25">
-        <v>21.86500014378401</v>
+        <v>19.04058365729121</v>
       </c>
       <c r="G25">
-        <v>3.605364427373635</v>
+        <v>2.048377819761899</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.44406896116215</v>
+        <v>11.33633924807901</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.64564317716832</v>
+        <v>20.75921781056824</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.33410408350478</v>
+        <v>14.2070195000321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.669615026010374</v>
+        <v>11.45049248639296</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.962376575755681</v>
+        <v>5.145465029321898</v>
       </c>
       <c r="E2">
-        <v>29.87611812650355</v>
+        <v>12.4120034491221</v>
       </c>
       <c r="F2">
-        <v>18.06599582102479</v>
+        <v>15.76826121179827</v>
       </c>
       <c r="G2">
-        <v>2.057261502967897</v>
+        <v>18.60861336912672</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.13230795198122</v>
       </c>
       <c r="I2">
-        <v>11.8934100610279</v>
+        <v>4.377456600033515</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.028456161361094</v>
       </c>
       <c r="K2">
-        <v>19.19403399339836</v>
+        <v>16.73624193723739</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.73227592722666</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.999543555664176</v>
       </c>
       <c r="O2">
-        <v>13.80019472658926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.479856422180156</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.64870549067168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.222274570693216</v>
+        <v>10.80570068725118</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.845994694813724</v>
+        <v>4.917630029359513</v>
       </c>
       <c r="E3">
-        <v>27.69915675370319</v>
+        <v>12.33506078717267</v>
       </c>
       <c r="F3">
-        <v>17.43441709717604</v>
+        <v>15.48410975790508</v>
       </c>
       <c r="G3">
-        <v>2.063460226795758</v>
+        <v>18.28878750278965</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.285972485510372</v>
       </c>
       <c r="I3">
-        <v>12.28236537696488</v>
+        <v>4.488267379883336</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.070313149945537</v>
       </c>
       <c r="K3">
-        <v>18.06058204217696</v>
+        <v>16.92628256098829</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.10097789109618</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.75933305393429</v>
       </c>
       <c r="O3">
-        <v>13.56589837760666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.115199219003038</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.63910210959229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.932646544248791</v>
+        <v>10.38618146571437</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.772432829488984</v>
+        <v>4.772027404361787</v>
       </c>
       <c r="E4">
-        <v>26.29975584980211</v>
+        <v>12.28600972384572</v>
       </c>
       <c r="F4">
-        <v>17.06169122688481</v>
+        <v>15.31649449916827</v>
       </c>
       <c r="G4">
-        <v>2.067362343803616</v>
+        <v>18.10302816167003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.38387700424902</v>
       </c>
       <c r="I4">
-        <v>12.52716906441135</v>
+        <v>4.559492577197319</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.099179615055165</v>
       </c>
       <c r="K4">
-        <v>17.32894485454076</v>
+        <v>17.0450969290416</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.6996061840941</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.608101927362667</v>
       </c>
       <c r="O4">
-        <v>13.4415226734399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>8.883505825130936</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.64004801903716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.810888063800393</v>
+        <v>10.20117007154104</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.741956011795848</v>
+        <v>4.712618239948144</v>
       </c>
       <c r="E5">
-        <v>25.71336845984325</v>
+        <v>12.26383535743794</v>
       </c>
       <c r="F5">
-        <v>16.91371752200739</v>
+        <v>15.24346007300195</v>
       </c>
       <c r="G5">
-        <v>2.068977762304566</v>
+        <v>18.01841305071581</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.424991754393923</v>
       </c>
       <c r="I5">
-        <v>12.62848136772866</v>
+        <v>4.591714382282823</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.10990712328187</v>
       </c>
       <c r="K5">
-        <v>17.02187865818019</v>
+        <v>17.08903636955591</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.53870006545677</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.548703455026033</v>
       </c>
       <c r="O5">
-        <v>13.39558045476543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.786164396112863</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.63747540506899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.790445767028953</v>
+        <v>10.16005693382949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.73686607827743</v>
+        <v>4.704287458570811</v>
       </c>
       <c r="E6">
-        <v>25.61501601491784</v>
+        <v>12.25805554176377</v>
       </c>
       <c r="F6">
-        <v>16.88938666121476</v>
+        <v>15.22348252640671</v>
       </c>
       <c r="G6">
-        <v>2.069247559020313</v>
+        <v>17.99032848719658</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.432256571665186</v>
       </c>
       <c r="I6">
-        <v>12.64539935076957</v>
+        <v>4.600153366262856</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.109520584282881</v>
       </c>
       <c r="K6">
-        <v>16.97035418641874</v>
+        <v>17.09025394031844</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.51911237959359</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.542586447281413</v>
       </c>
       <c r="O6">
-        <v>13.38823322855805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>8.76857663874736</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.63149104351426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.931019534614963</v>
+        <v>10.35684430503267</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.772023791573707</v>
+        <v>4.775595707439057</v>
       </c>
       <c r="E7">
-        <v>26.29191333388893</v>
+        <v>12.28016353869512</v>
       </c>
       <c r="F7">
-        <v>17.05967958565225</v>
+        <v>15.29393127478959</v>
       </c>
       <c r="G7">
-        <v>2.06738402614638</v>
+        <v>18.06337794606022</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.385449474835461</v>
       </c>
       <c r="I7">
-        <v>12.52852904815089</v>
+        <v>4.567947366358121</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.093291154112533</v>
       </c>
       <c r="K7">
-        <v>17.32483966401838</v>
+        <v>17.02905684442539</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.71723676269739</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.617523381255012</v>
       </c>
       <c r="O7">
-        <v>13.44088410208619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8.878653630633396</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.6246073217556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.518491020970414</v>
+        <v>11.19998105835636</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.922701116639984</v>
+        <v>5.073650906844473</v>
       </c>
       <c r="E8">
-        <v>29.13830852036615</v>
+        <v>12.37904752633382</v>
       </c>
       <c r="F8">
-        <v>17.84517703633699</v>
+        <v>15.64116792165389</v>
       </c>
       <c r="G8">
-        <v>2.059379578364658</v>
+        <v>18.44660836860953</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.185806517209274</v>
       </c>
       <c r="I8">
-        <v>12.0263097581049</v>
+        <v>4.42503794916687</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.034313942126776</v>
       </c>
       <c r="K8">
-        <v>18.81065308398223</v>
+        <v>16.77971521110361</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.54269508589772</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.930398801032035</v>
       </c>
       <c r="O8">
-        <v>13.71527659184052</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.351323714744227</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.62381136143244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.551047743781153</v>
+        <v>12.7063208313202</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.200361634053188</v>
+        <v>5.604009315493182</v>
       </c>
       <c r="E9">
-        <v>34.23913791994441</v>
+        <v>12.56822912356186</v>
       </c>
       <c r="F9">
-        <v>19.49969210579055</v>
+        <v>16.41107493791451</v>
       </c>
       <c r="G9">
-        <v>2.044390414734207</v>
+        <v>19.34733046831425</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.8204154261777</v>
       </c>
       <c r="I9">
-        <v>11.08662201488887</v>
+        <v>4.156814275985473</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.955438636740277</v>
       </c>
       <c r="K9">
-        <v>21.44007304556137</v>
+        <v>16.33613509844186</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.01399020138481</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.494589281955684</v>
       </c>
       <c r="O9">
-        <v>14.41407465901594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.21814603529001</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.70602036745166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.236357819812577</v>
+        <v>13.62254217600783</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.392180791692375</v>
+        <v>5.985015563845654</v>
       </c>
       <c r="E10">
-        <v>37.71933251637678</v>
+        <v>12.67915709903919</v>
       </c>
       <c r="F10">
-        <v>20.77869014459482</v>
+        <v>16.89823675192225</v>
       </c>
       <c r="G10">
-        <v>2.033725350510684</v>
+        <v>19.86685180858456</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.595414112210405</v>
       </c>
       <c r="I10">
-        <v>10.42033454314818</v>
+        <v>3.984148406820153</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.882890390584109</v>
       </c>
       <c r="K10">
-        <v>23.19902984421299</v>
+        <v>15.95001673520968</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.09402604466487</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.791115558473821</v>
       </c>
       <c r="O10">
-        <v>15.03276787575614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>10.72692615016373</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.72325266144974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.532232028040379</v>
+        <v>13.46191058355342</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.476575829826652</v>
+        <v>6.327521202430954</v>
       </c>
       <c r="E11">
-        <v>39.25100529874776</v>
+        <v>12.88683393523433</v>
       </c>
       <c r="F11">
-        <v>21.37347421150604</v>
+        <v>16.25768232945986</v>
       </c>
       <c r="G11">
-        <v>2.028928028397153</v>
+        <v>18.56582337909333</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.3805468465668</v>
       </c>
       <c r="I11">
-        <v>10.12164508613024</v>
+        <v>3.963066231081346</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.592914825298188</v>
       </c>
       <c r="K11">
-        <v>23.96221611100845</v>
+        <v>15.32064026682033</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.16739454785783</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.087197635189209</v>
       </c>
       <c r="O11">
-        <v>15.33843627390191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.24446105630011</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.07969507390969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.641996707600226</v>
+        <v>13.16624988737727</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.508106750408696</v>
+        <v>6.536803003260482</v>
       </c>
       <c r="E12">
-        <v>39.82422186399576</v>
+        <v>13.44025575779598</v>
       </c>
       <c r="F12">
-        <v>21.60053932515872</v>
+        <v>15.62802330503861</v>
       </c>
       <c r="G12">
-        <v>2.027117252849979</v>
+        <v>17.38601935783693</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.594429445178171</v>
       </c>
       <c r="I12">
-        <v>10.00910184656134</v>
+        <v>3.962354162724726</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.37035621533404</v>
       </c>
       <c r="K12">
-        <v>24.24596537357356</v>
+        <v>15.02491521536753</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.8436417036071</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.427309778435533</v>
       </c>
       <c r="O12">
-        <v>15.45777231653271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.732762915094332</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.54762330430705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.618458017675778</v>
+        <v>12.70745681151799</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.50133524732629</v>
+        <v>6.666460631058624</v>
       </c>
       <c r="E13">
-        <v>39.70106110076015</v>
+        <v>14.23023973660721</v>
       </c>
       <c r="F13">
-        <v>21.55155531121598</v>
+        <v>14.92429721270089</v>
       </c>
       <c r="G13">
-        <v>2.027507008088082</v>
+        <v>16.14992417627834</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.92150184454966</v>
       </c>
       <c r="I13">
-        <v>10.03331612348194</v>
+        <v>3.990083323866709</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.177297139730516</v>
       </c>
       <c r="K13">
-        <v>24.18508730300247</v>
+        <v>14.94485535403542</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.29434831613574</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.769222834310875</v>
       </c>
       <c r="O13">
-        <v>15.43190999201489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.153149155457267</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.04390487653546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.541308005630917</v>
+        <v>12.29953909209384</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.479178549952255</v>
+        <v>6.723941435811452</v>
       </c>
       <c r="E14">
-        <v>39.29829658723623</v>
+        <v>14.91056926042457</v>
       </c>
       <c r="F14">
-        <v>21.39211828565679</v>
+        <v>14.38808979831845</v>
       </c>
       <c r="G14">
-        <v>2.028778949120063</v>
+        <v>15.24352162403789</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.884411142773805</v>
       </c>
       <c r="I14">
-        <v>10.11237519904874</v>
+        <v>4.024505406067362</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.055435717958231</v>
       </c>
       <c r="K14">
-        <v>23.98566517760175</v>
+        <v>15.002620171273</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.51883777850868</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.318222432386893</v>
       </c>
       <c r="O14">
-        <v>15.34818164920456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.71233395291287</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.70273267739407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.4937551990944</v>
+        <v>12.15588071158142</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.46555081459413</v>
+        <v>6.722216120828459</v>
       </c>
       <c r="E15">
-        <v>39.05072618618721</v>
+        <v>15.08231131912251</v>
       </c>
       <c r="F15">
-        <v>21.2946970254175</v>
+        <v>14.23562993556478</v>
       </c>
       <c r="G15">
-        <v>2.029558752434238</v>
+        <v>15.00040214468779</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.110881434103357</v>
       </c>
       <c r="I15">
-        <v>10.16087246309182</v>
+        <v>4.043234787231612</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.030648535220239</v>
       </c>
       <c r="K15">
-        <v>23.86283150034306</v>
+        <v>15.04506406019038</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.53116130118071</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.210505119242138</v>
       </c>
       <c r="O15">
-        <v>15.29736574538985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.589028704260686</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.62226922199024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.216702731939341</v>
+        <v>11.82327436868968</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.386606335988736</v>
+        <v>6.549010428547304</v>
       </c>
       <c r="E16">
-        <v>37.61824844926196</v>
+        <v>14.86095491433596</v>
       </c>
       <c r="F16">
-        <v>20.74007692531839</v>
+        <v>14.12351628453957</v>
       </c>
       <c r="G16">
-        <v>2.034039798079367</v>
+        <v>14.9512834226185</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.926051288306083</v>
       </c>
       <c r="I16">
-        <v>10.4399374265768</v>
+        <v>4.11757291239514</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.097437550408733</v>
       </c>
       <c r="K16">
-        <v>23.14841488388073</v>
+        <v>15.20652113541229</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.02990022411879</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.19445141476673</v>
       </c>
       <c r="O16">
-        <v>15.01328787989694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.464095848137246</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.70292028519193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.042676946181437</v>
+        <v>11.79052753455154</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.337430822766967</v>
+        <v>6.381660713949279</v>
       </c>
       <c r="E17">
-        <v>36.7266935515392</v>
+        <v>14.30001119837229</v>
       </c>
       <c r="F17">
-        <v>20.40312135313684</v>
+        <v>14.33185833518157</v>
       </c>
       <c r="G17">
-        <v>2.036801361921938</v>
+        <v>15.40864511912534</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.244288890718264</v>
       </c>
       <c r="I17">
-        <v>10.61221538034743</v>
+        <v>4.156884239440358</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.21290657016184</v>
       </c>
       <c r="K17">
-        <v>22.70071353546442</v>
+        <v>15.29156346566412</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.51359881740901</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.422421140479964</v>
       </c>
       <c r="O17">
-        <v>14.8452918422703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.608148992229857</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.94599108428927</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.941086838608026</v>
+        <v>12.03477611754297</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.308877534836346</v>
+        <v>6.199946488007207</v>
       </c>
       <c r="E18">
-        <v>36.20900822480228</v>
+        <v>13.50949755813924</v>
       </c>
       <c r="F18">
-        <v>20.2105330248213</v>
+        <v>14.84893569713106</v>
       </c>
       <c r="G18">
-        <v>2.038394976410244</v>
+        <v>16.37283957850365</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.104026213660133</v>
       </c>
       <c r="I18">
-        <v>10.71172445288002</v>
+        <v>4.159504181109789</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.388059345461508</v>
       </c>
       <c r="K18">
-        <v>22.43972260588174</v>
+        <v>15.38912813388447</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.92067687554339</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.903677665667665</v>
       </c>
       <c r="O18">
-        <v>14.75093878029375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.006373100021566</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.36702857183781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.906433260263984</v>
+        <v>12.43770592448435</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.299164229366067</v>
+        <v>6.031705911923606</v>
       </c>
       <c r="E19">
-        <v>36.03287223669984</v>
+        <v>12.86505076401617</v>
       </c>
       <c r="F19">
-        <v>20.14553695502584</v>
+        <v>15.53217157536559</v>
       </c>
       <c r="G19">
-        <v>2.038935501766128</v>
+        <v>17.60197924945392</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.825795062795598</v>
       </c>
       <c r="I19">
-        <v>10.74549059808189</v>
+        <v>4.144404303360704</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.590712490820294</v>
       </c>
       <c r="K19">
-        <v>22.35075537516541</v>
+        <v>15.58202318799029</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.361282248542</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.58814191282783</v>
       </c>
       <c r="O19">
-        <v>14.71937987806632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.574422886259756</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.87829486234974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.061356988396597</v>
+        <v>13.32051437674751</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.342693585065507</v>
+        <v>5.899777909458304</v>
       </c>
       <c r="E20">
-        <v>36.82210265447917</v>
+        <v>12.63813453109153</v>
       </c>
       <c r="F20">
-        <v>20.4388649703392</v>
+        <v>16.70396882045145</v>
       </c>
       <c r="G20">
-        <v>2.036506860182254</v>
+        <v>19.61186187626978</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.655766710892513</v>
       </c>
       <c r="I20">
-        <v>10.593833189473</v>
+        <v>4.053683707664766</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.881272979614491</v>
       </c>
       <c r="K20">
-        <v>22.74873238433358</v>
+        <v>16.00068831090849</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.87256600911565</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.736455879697075</v>
       </c>
       <c r="O20">
-        <v>14.86293923837935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.58301355270416</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.66714382494512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.564030543936726</v>
+        <v>14.09760224147481</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.485698228816357</v>
+        <v>6.148934936397795</v>
       </c>
       <c r="E21">
-        <v>39.41677746290353</v>
+        <v>12.75259973068732</v>
       </c>
       <c r="F21">
-        <v>21.43889909461983</v>
+        <v>17.25063424440685</v>
       </c>
       <c r="G21">
-        <v>2.028405206537909</v>
+        <v>20.32007303073029</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.447132264961519</v>
       </c>
       <c r="I21">
-        <v>10.08913890469307</v>
+        <v>3.912414632307659</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.880564031406068</v>
       </c>
       <c r="K21">
-        <v>24.04438225090628</v>
+        <v>15.81228642415638</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.56165684376495</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.104382634239946</v>
       </c>
       <c r="O21">
-        <v>15.37267652977753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.08730274176768</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.81753126076019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.879293667827184</v>
+        <v>14.5770738531347</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.576661746695851</v>
+        <v>6.31156213528141</v>
       </c>
       <c r="E22">
-        <v>41.07328294094713</v>
+        <v>12.82235063655227</v>
       </c>
       <c r="F22">
-        <v>22.10318060590679</v>
+        <v>17.58557008907163</v>
       </c>
       <c r="G22">
-        <v>2.023143435690435</v>
+        <v>20.7435330163247</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.325492708473649</v>
       </c>
       <c r="I22">
-        <v>9.762543732002992</v>
+        <v>3.815237398997369</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.876379692340815</v>
       </c>
       <c r="K22">
-        <v>24.86058953886958</v>
+        <v>15.67977061971078</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.01031221931106</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.278348267941142</v>
       </c>
       <c r="O22">
-        <v>15.72677349986627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.36929905698491</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.9044169682859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.712242161674618</v>
+        <v>14.34680255553152</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.528345980016725</v>
+        <v>6.221059004364404</v>
       </c>
       <c r="E23">
-        <v>40.19254577612403</v>
+        <v>12.78965420651632</v>
       </c>
       <c r="F23">
-        <v>21.74766130373266</v>
+        <v>17.42827809017083</v>
       </c>
       <c r="G23">
-        <v>2.025949410077593</v>
+        <v>20.55572457397099</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.389311096633833</v>
       </c>
       <c r="I23">
-        <v>9.936580421186534</v>
+        <v>3.857260963817191</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.88510221609031</v>
       </c>
       <c r="K23">
-        <v>24.42773612311018</v>
+        <v>15.76856902065491</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.75281988597851</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.176288499724978</v>
       </c>
       <c r="O23">
-        <v>15.53583265509416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.22303541966175</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.87429636082771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.052916539659124</v>
+        <v>13.39468014382639</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.340315166227342</v>
+        <v>5.873153870827498</v>
       </c>
       <c r="E24">
-        <v>36.77898418711095</v>
+        <v>12.65712514873668</v>
       </c>
       <c r="F24">
-        <v>20.42270175246052</v>
+        <v>16.80728056879238</v>
       </c>
       <c r="G24">
-        <v>2.036639985727827</v>
+        <v>19.80086574838433</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.637811514889662</v>
       </c>
       <c r="I24">
-        <v>10.6021423269143</v>
+        <v>4.036644030751846</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.914939253982782</v>
       </c>
       <c r="K24">
-        <v>22.72703428509849</v>
+        <v>16.07962194383726</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.77773499310699</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.79481786714389</v>
       </c>
       <c r="O24">
-        <v>14.85495391204099</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.64542801963403</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.74973724612821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.284578856467279</v>
+        <v>12.27830852550768</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.127300919647746</v>
+        <v>5.472844760054485</v>
       </c>
       <c r="E25">
-        <v>32.90820360956636</v>
+        <v>12.5102402115303</v>
       </c>
       <c r="F25">
-        <v>19.04058365729121</v>
+        <v>16.16139607532558</v>
       </c>
       <c r="G25">
-        <v>2.048377819761899</v>
+        <v>19.03030297062889</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.917887347559029</v>
       </c>
       <c r="I25">
-        <v>11.33633924807901</v>
+        <v>4.240661085107083</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.963167124570749</v>
       </c>
       <c r="K25">
-        <v>20.75921781056824</v>
+        <v>16.42575550983493</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.66125721426701</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.362173006352695</v>
       </c>
       <c r="O25">
-        <v>14.2070195000321</v>
+        <v>9.985518571540597</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.65040650396041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.45049248639296</v>
+        <v>11.06401575247455</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.145465029321898</v>
+        <v>5.157939220276352</v>
       </c>
       <c r="E2">
-        <v>12.4120034491221</v>
+        <v>11.83086351899251</v>
       </c>
       <c r="F2">
-        <v>15.76826121179827</v>
+        <v>15.59430413097895</v>
       </c>
       <c r="G2">
-        <v>18.60861336912672</v>
+        <v>17.5754490666476</v>
       </c>
       <c r="H2">
-        <v>3.13230795198122</v>
+        <v>2.911727025696997</v>
       </c>
       <c r="I2">
-        <v>4.377456600033515</v>
+        <v>4.049114052849996</v>
       </c>
       <c r="J2">
-        <v>8.028456161361094</v>
+        <v>8.52311816291297</v>
       </c>
       <c r="K2">
-        <v>16.73624193723739</v>
+        <v>15.87776851937482</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.13311513050642</v>
       </c>
       <c r="M2">
-        <v>14.73227592722666</v>
+        <v>11.25279123483351</v>
       </c>
       <c r="N2">
-        <v>5.999543555664176</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.479856422180156</v>
+        <v>14.67578288101711</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.276590414833408</v>
       </c>
       <c r="Q2">
-        <v>12.64870549067168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.410345249207474</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.50134733810034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.80570068725118</v>
+        <v>10.4413927564187</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.917630029359513</v>
+        <v>4.918893095311719</v>
       </c>
       <c r="E3">
-        <v>12.33506078717267</v>
+        <v>11.75371792536386</v>
       </c>
       <c r="F3">
-        <v>15.48410975790508</v>
+        <v>15.33893381250079</v>
       </c>
       <c r="G3">
-        <v>18.28878750278965</v>
+        <v>17.3023026659392</v>
       </c>
       <c r="H3">
-        <v>3.285972485510372</v>
+        <v>3.054669782333458</v>
       </c>
       <c r="I3">
-        <v>4.488267379883336</v>
+        <v>4.14463463137835</v>
       </c>
       <c r="J3">
-        <v>8.070313149945537</v>
+        <v>8.542548484711098</v>
       </c>
       <c r="K3">
-        <v>16.92628256098829</v>
+        <v>16.07121863578603</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.30679026938167</v>
       </c>
       <c r="M3">
-        <v>14.10097789109618</v>
+        <v>11.41900225452676</v>
       </c>
       <c r="N3">
-        <v>5.75933305393429</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.115199219003038</v>
+        <v>13.99783007009129</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.035003846294825</v>
       </c>
       <c r="Q3">
-        <v>12.63910210959229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.046732479679887</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.510325880135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.38618146571437</v>
+        <v>10.03472392806977</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.772027404361787</v>
+        <v>4.766080408906833</v>
       </c>
       <c r="E4">
-        <v>12.28600972384572</v>
+        <v>11.70507394105042</v>
       </c>
       <c r="F4">
-        <v>15.31649449916827</v>
+        <v>15.18843234878516</v>
       </c>
       <c r="G4">
-        <v>18.10302816167003</v>
+        <v>17.14790446567795</v>
       </c>
       <c r="H4">
-        <v>3.38387700424902</v>
+        <v>3.145753115905999</v>
       </c>
       <c r="I4">
-        <v>4.559492577197319</v>
+        <v>4.206302534376741</v>
       </c>
       <c r="J4">
-        <v>8.099179615055165</v>
+        <v>8.556024839978134</v>
       </c>
       <c r="K4">
-        <v>17.0450969290416</v>
+        <v>16.19179198805737</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.4193254193871</v>
       </c>
       <c r="M4">
-        <v>13.6996061840941</v>
+        <v>11.53049972591969</v>
       </c>
       <c r="N4">
-        <v>5.608101927362667</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.883505825130936</v>
+        <v>13.56660454973083</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.883632093116806</v>
       </c>
       <c r="Q4">
-        <v>12.64004801903716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.815412666598446</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.52198839185386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.20117007154104</v>
+        <v>9.85523812040792</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.712618239948144</v>
+        <v>4.703547584239264</v>
       </c>
       <c r="E5">
-        <v>12.26383535743794</v>
+        <v>11.68345451585904</v>
       </c>
       <c r="F5">
-        <v>15.24346007300195</v>
+        <v>15.12278232346051</v>
       </c>
       <c r="G5">
-        <v>18.01841305071581</v>
+        <v>17.0773906843928</v>
       </c>
       <c r="H5">
-        <v>3.424991754393923</v>
+        <v>3.184013888333693</v>
       </c>
       <c r="I5">
-        <v>4.591714382282823</v>
+        <v>4.234989703681329</v>
       </c>
       <c r="J5">
-        <v>8.10990712328187</v>
+        <v>8.560285709861576</v>
       </c>
       <c r="K5">
-        <v>17.08903636955591</v>
+        <v>16.236861748839</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.4611961359722</v>
       </c>
       <c r="M5">
-        <v>13.53870006545677</v>
+        <v>11.57683008617165</v>
       </c>
       <c r="N5">
-        <v>5.548703455026033</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.786164396112863</v>
+        <v>13.39286683056503</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.823966082387624</v>
       </c>
       <c r="Q5">
-        <v>12.63747540506899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.718243204241439</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.52401845347048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.16005693382949</v>
+        <v>9.81567869084672</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.704287458570811</v>
+        <v>4.694559669661168</v>
       </c>
       <c r="E6">
-        <v>12.25805554176377</v>
+        <v>11.6780914976203</v>
       </c>
       <c r="F6">
-        <v>15.22348252640671</v>
+        <v>15.10472445044459</v>
       </c>
       <c r="G6">
-        <v>17.99032848719658</v>
+        <v>17.05255391324458</v>
       </c>
       <c r="H6">
-        <v>3.432256571665186</v>
+        <v>3.190784650262047</v>
       </c>
       <c r="I6">
-        <v>4.600153366262856</v>
+        <v>4.243370828818764</v>
       </c>
       <c r="J6">
-        <v>8.109520584282881</v>
+        <v>8.5590448845218</v>
       </c>
       <c r="K6">
-        <v>17.09025394031844</v>
+        <v>16.23887115815852</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.46161823472148</v>
       </c>
       <c r="M6">
-        <v>13.51911237959359</v>
+        <v>11.58287482339319</v>
       </c>
       <c r="N6">
-        <v>5.542586447281413</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.76857663874736</v>
+        <v>13.37064817513976</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.817326545027858</v>
       </c>
       <c r="Q6">
-        <v>12.63149104351426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.700791009238602</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.51929281430828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.35684430503267</v>
+        <v>10.0104062684349</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.775595707439057</v>
+        <v>4.772630978738217</v>
       </c>
       <c r="E7">
-        <v>12.28016353869512</v>
+        <v>11.69937046680884</v>
       </c>
       <c r="F7">
-        <v>15.29393127478959</v>
+        <v>15.15350216696534</v>
       </c>
       <c r="G7">
-        <v>18.06337794606022</v>
+        <v>17.19368489135067</v>
       </c>
       <c r="H7">
-        <v>3.385449474835461</v>
+        <v>3.147546482433763</v>
       </c>
       <c r="I7">
-        <v>4.567947366358121</v>
+        <v>4.216308136058719</v>
       </c>
       <c r="J7">
-        <v>8.093291154112533</v>
+        <v>8.517396614430869</v>
       </c>
       <c r="K7">
-        <v>17.02905684442539</v>
+        <v>16.17472845173437</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.39938350649846</v>
       </c>
       <c r="M7">
-        <v>13.71723676269739</v>
+        <v>11.52461370022427</v>
       </c>
       <c r="N7">
-        <v>5.617523381255012</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.878653630633396</v>
+        <v>13.57968061105056</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.890595787765299</v>
       </c>
       <c r="Q7">
-        <v>12.6246073217556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.811276187523095</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.49813054426978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.19998105835636</v>
+        <v>10.8333504569722</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.073650906844473</v>
+        <v>5.092611574240048</v>
       </c>
       <c r="E8">
-        <v>12.37904752633382</v>
+        <v>11.79672141026931</v>
       </c>
       <c r="F8">
-        <v>15.64116792165389</v>
+        <v>15.43298746811603</v>
       </c>
       <c r="G8">
-        <v>18.44660836860953</v>
+        <v>17.70321293283452</v>
       </c>
       <c r="H8">
-        <v>3.185806517209274</v>
+        <v>2.96245216799006</v>
       </c>
       <c r="I8">
-        <v>4.42503794916687</v>
+        <v>4.09385196861785</v>
       </c>
       <c r="J8">
-        <v>8.034313942126776</v>
+        <v>8.413783389160102</v>
       </c>
       <c r="K8">
-        <v>16.77971521110361</v>
+        <v>15.91648923827426</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.1632091737124</v>
       </c>
       <c r="M8">
-        <v>14.54269508589772</v>
+        <v>11.29446040789704</v>
       </c>
       <c r="N8">
-        <v>5.930398801032035</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.351323714744227</v>
+        <v>14.45909399805304</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.201596610546853</v>
       </c>
       <c r="Q8">
-        <v>12.62381136143244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.283902006326437</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.45226297080882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.7063208313202</v>
+        <v>12.28110266131598</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.604009315493182</v>
+        <v>5.651244641629884</v>
       </c>
       <c r="E9">
-        <v>12.56822912356186</v>
+        <v>11.98787334951727</v>
       </c>
       <c r="F9">
-        <v>16.41107493791451</v>
+        <v>16.11649140732851</v>
       </c>
       <c r="G9">
-        <v>19.34733046831425</v>
+        <v>18.56221746246761</v>
       </c>
       <c r="H9">
-        <v>2.8204154261777</v>
+        <v>2.622730310045257</v>
       </c>
       <c r="I9">
-        <v>4.156814275985473</v>
+        <v>3.861469011408773</v>
       </c>
       <c r="J9">
-        <v>7.955438636740277</v>
+        <v>8.350421853375311</v>
       </c>
       <c r="K9">
-        <v>16.33613509844186</v>
+        <v>15.45886477694692</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.78474698082279</v>
       </c>
       <c r="M9">
-        <v>16.01399020138481</v>
+        <v>10.93552304753316</v>
       </c>
       <c r="N9">
-        <v>6.494589281955684</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21814603529001</v>
+        <v>16.03895883716721</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.773411590993211</v>
       </c>
       <c r="Q9">
-        <v>12.70602036745166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.14663890934484</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.47423524142259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.62254217600783</v>
+        <v>13.18290663748063</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.985015563845654</v>
+        <v>6.065018469137352</v>
       </c>
       <c r="E10">
-        <v>12.67915709903919</v>
+        <v>12.11308938779301</v>
       </c>
       <c r="F10">
-        <v>16.89823675192225</v>
+        <v>16.4784440475138</v>
       </c>
       <c r="G10">
-        <v>19.86685180858456</v>
+        <v>19.53077168817171</v>
       </c>
       <c r="H10">
-        <v>2.595414112210405</v>
+        <v>2.417066845017279</v>
       </c>
       <c r="I10">
-        <v>3.984148406820153</v>
+        <v>3.715532179293785</v>
       </c>
       <c r="J10">
-        <v>7.882890390584109</v>
+        <v>8.105837392496097</v>
       </c>
       <c r="K10">
-        <v>15.95001673520968</v>
+        <v>15.06675392206678</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.49321740503383</v>
       </c>
       <c r="M10">
-        <v>17.09402604466487</v>
+        <v>10.66623144909996</v>
       </c>
       <c r="N10">
-        <v>6.791115558473821</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.72692615016373</v>
+        <v>17.16534023039748</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.06711335417249</v>
       </c>
       <c r="Q10">
-        <v>12.72325266144974</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.65516780918763</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.39998787771675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.46191058355342</v>
+        <v>13.16469914274706</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.327521202430954</v>
+        <v>6.428902379107138</v>
       </c>
       <c r="E11">
-        <v>12.88683393523433</v>
+        <v>12.39481396646398</v>
       </c>
       <c r="F11">
-        <v>16.25768232945986</v>
+        <v>15.77285458600879</v>
       </c>
       <c r="G11">
-        <v>18.56582337909333</v>
+        <v>19.38037605090432</v>
       </c>
       <c r="H11">
-        <v>3.3805468465668</v>
+        <v>3.249462735402092</v>
       </c>
       <c r="I11">
-        <v>3.963066231081346</v>
+        <v>3.705097071813746</v>
       </c>
       <c r="J11">
-        <v>7.592914825298188</v>
+        <v>7.549749742974925</v>
       </c>
       <c r="K11">
-        <v>15.32064026682033</v>
+        <v>14.56424513619102</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.17649470381978</v>
       </c>
       <c r="M11">
-        <v>18.16739454785783</v>
+        <v>10.25129676752679</v>
       </c>
       <c r="N11">
-        <v>6.087197635189209</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.24446105630011</v>
+        <v>18.13577366088782</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.313972706161842</v>
       </c>
       <c r="Q11">
-        <v>12.07969507390969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.19045586105441</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.71917527911372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.16624988737727</v>
+        <v>12.98289925830735</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.536803003260482</v>
+        <v>6.639454693995875</v>
       </c>
       <c r="E12">
-        <v>13.44025575779598</v>
+        <v>12.95074720116288</v>
       </c>
       <c r="F12">
-        <v>15.62802330503861</v>
+        <v>15.16026808194757</v>
       </c>
       <c r="G12">
-        <v>17.38601935783693</v>
+        <v>18.80284458204101</v>
       </c>
       <c r="H12">
-        <v>4.594429445178171</v>
+        <v>4.498603290924907</v>
       </c>
       <c r="I12">
-        <v>3.962354162724726</v>
+        <v>3.7054577668857</v>
       </c>
       <c r="J12">
-        <v>7.37035621533404</v>
+        <v>7.278611434508794</v>
       </c>
       <c r="K12">
-        <v>15.02491521536753</v>
+        <v>14.35443722163123</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.08480380151945</v>
       </c>
       <c r="M12">
-        <v>18.8436417036071</v>
+        <v>10.04112848687189</v>
       </c>
       <c r="N12">
-        <v>5.427309778435533</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.732762915094332</v>
+        <v>18.72063373421507</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.622728734205443</v>
       </c>
       <c r="Q12">
-        <v>11.54762330430705</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.691959075369361</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.21011723791182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.70745681151799</v>
+        <v>12.62253418095876</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.666460631058624</v>
+        <v>6.746304306426953</v>
       </c>
       <c r="E13">
-        <v>14.23023973660721</v>
+        <v>13.70492941854751</v>
       </c>
       <c r="F13">
-        <v>14.92429721270089</v>
+        <v>14.57475665140586</v>
       </c>
       <c r="G13">
-        <v>16.14992417627834</v>
+        <v>17.58570565752873</v>
       </c>
       <c r="H13">
-        <v>5.92150184454966</v>
+        <v>5.845024257898182</v>
       </c>
       <c r="I13">
-        <v>3.990083323866709</v>
+        <v>3.728990045104298</v>
       </c>
       <c r="J13">
-        <v>7.177297139730516</v>
+        <v>7.202501805209711</v>
       </c>
       <c r="K13">
-        <v>14.94485535403542</v>
+        <v>14.32153445474546</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.10179544265627</v>
       </c>
       <c r="M13">
-        <v>19.29434831613574</v>
+        <v>9.974471451761065</v>
       </c>
       <c r="N13">
-        <v>4.769222834310875</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.153149155457267</v>
+        <v>19.08707218670105</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4.948784101169546</v>
       </c>
       <c r="Q13">
-        <v>11.04390487653546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.122338666757937</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.80040800035688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.29953909209384</v>
+        <v>12.27843240566485</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.723941435811452</v>
+        <v>6.776508316304447</v>
       </c>
       <c r="E14">
-        <v>14.91056926042457</v>
+        <v>14.34260267481321</v>
       </c>
       <c r="F14">
-        <v>14.38808979831845</v>
+        <v>14.16596231849164</v>
       </c>
       <c r="G14">
-        <v>15.24352162403789</v>
+        <v>16.43477257365669</v>
       </c>
       <c r="H14">
-        <v>6.884411142773805</v>
+        <v>6.816438966157752</v>
       </c>
       <c r="I14">
-        <v>4.024505406067362</v>
+        <v>3.758663032727275</v>
       </c>
       <c r="J14">
-        <v>7.055435717958231</v>
+        <v>7.219483159696914</v>
       </c>
       <c r="K14">
-        <v>15.002620171273</v>
+        <v>14.38111457783581</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.15505430548699</v>
       </c>
       <c r="M14">
-        <v>19.51883777850868</v>
+        <v>10.00496947239071</v>
       </c>
       <c r="N14">
-        <v>4.318222432386893</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.71233395291287</v>
+        <v>19.25411176225916</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.496563153987942</v>
       </c>
       <c r="Q14">
-        <v>10.70273267739407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.686935090893989</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.55309349108814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.15588071158142</v>
+        <v>12.1481331686803</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.722216120828459</v>
+        <v>6.763305705753521</v>
       </c>
       <c r="E15">
-        <v>15.08231131912251</v>
+        <v>14.50310698743765</v>
       </c>
       <c r="F15">
-        <v>14.23562993556478</v>
+        <v>14.06365744617551</v>
       </c>
       <c r="G15">
-        <v>15.00040214468779</v>
+        <v>16.02345356297478</v>
       </c>
       <c r="H15">
-        <v>7.110881434103357</v>
+        <v>7.043969057291173</v>
       </c>
       <c r="I15">
-        <v>4.043234787231612</v>
+        <v>3.775717461583773</v>
       </c>
       <c r="J15">
-        <v>7.030648535220239</v>
+        <v>7.253996671948716</v>
       </c>
       <c r="K15">
-        <v>15.04506406019038</v>
+        <v>14.41689594416988</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.17375345913301</v>
       </c>
       <c r="M15">
-        <v>19.53116130118071</v>
+        <v>10.03566380515871</v>
       </c>
       <c r="N15">
-        <v>4.210505119242138</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.589028704260686</v>
+        <v>19.25342649556848</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.390938253705779</v>
       </c>
       <c r="Q15">
-        <v>10.62226922199024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.564409295087151</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.50756320651977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.82327436868968</v>
+        <v>11.78812676691683</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.549010428547304</v>
+        <v>6.552055383377546</v>
       </c>
       <c r="E16">
-        <v>14.86095491433596</v>
+        <v>14.29913779794943</v>
       </c>
       <c r="F16">
-        <v>14.12351628453957</v>
+        <v>14.10093438991522</v>
       </c>
       <c r="G16">
-        <v>14.9512834226185</v>
+        <v>15.08291666410434</v>
       </c>
       <c r="H16">
-        <v>6.926051288306083</v>
+        <v>6.850993246274337</v>
       </c>
       <c r="I16">
-        <v>4.11757291239514</v>
+        <v>3.839016496979748</v>
       </c>
       <c r="J16">
-        <v>7.097437550408733</v>
+        <v>7.552309796901239</v>
       </c>
       <c r="K16">
-        <v>15.20652113541229</v>
+        <v>14.55043474562107</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.18299720753597</v>
       </c>
       <c r="M16">
-        <v>19.02990022411879</v>
+        <v>10.19842058576229</v>
       </c>
       <c r="N16">
-        <v>4.19445141476673</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.464095848137246</v>
+        <v>18.76859923251648</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.389641745564639</v>
       </c>
       <c r="Q16">
-        <v>10.70292028519193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.434513195863078</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.68458747225624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.79052753455154</v>
+        <v>11.70220837839669</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.381660713949279</v>
+        <v>6.37549467070049</v>
       </c>
       <c r="E17">
-        <v>14.30001119837229</v>
+        <v>13.77175361889166</v>
       </c>
       <c r="F17">
-        <v>14.33185833518157</v>
+        <v>14.33566863834863</v>
       </c>
       <c r="G17">
-        <v>15.40864511912534</v>
+        <v>15.11295729696498</v>
       </c>
       <c r="H17">
-        <v>6.244288890718264</v>
+        <v>6.156902800562174</v>
       </c>
       <c r="I17">
-        <v>4.156884239440358</v>
+        <v>3.872639869492714</v>
       </c>
       <c r="J17">
-        <v>7.21290657016184</v>
+        <v>7.759947355686619</v>
       </c>
       <c r="K17">
-        <v>15.29156346566412</v>
+        <v>14.62718219176624</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.18408537845858</v>
       </c>
       <c r="M17">
-        <v>18.51359881740901</v>
+        <v>10.29650055336092</v>
       </c>
       <c r="N17">
-        <v>4.422421140479964</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.608148992229857</v>
+        <v>18.29289484272009</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.626276181317315</v>
       </c>
       <c r="Q17">
-        <v>10.94599108428927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.572557565470063</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.94150960917411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.03477611754297</v>
+        <v>11.85912010893745</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.199946488007207</v>
+        <v>6.201990258791656</v>
       </c>
       <c r="E18">
-        <v>13.50949755813924</v>
+        <v>13.02069872604707</v>
       </c>
       <c r="F18">
-        <v>14.84893569713106</v>
+        <v>14.80453455526455</v>
       </c>
       <c r="G18">
-        <v>16.37283957850365</v>
+        <v>15.81708876230844</v>
       </c>
       <c r="H18">
-        <v>5.104026213660133</v>
+        <v>4.995323048737595</v>
       </c>
       <c r="I18">
-        <v>4.159504181109789</v>
+        <v>3.872092979014256</v>
       </c>
       <c r="J18">
-        <v>7.388059345461508</v>
+        <v>7.952233120934182</v>
       </c>
       <c r="K18">
-        <v>15.38912813388447</v>
+        <v>14.71267184205426</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.21915214304614</v>
       </c>
       <c r="M18">
-        <v>17.92067687554339</v>
+        <v>10.38091707397476</v>
       </c>
       <c r="N18">
-        <v>4.903677665667665</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.006373100021566</v>
+        <v>17.77098354407319</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.119936974474149</v>
       </c>
       <c r="Q18">
-        <v>11.36702857183781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>8.962016094560658</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.32602818031591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.43770592448435</v>
+        <v>12.15603217091668</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.031705911923606</v>
+        <v>6.051149636116389</v>
       </c>
       <c r="E19">
-        <v>12.86505076401617</v>
+        <v>12.38425061504563</v>
       </c>
       <c r="F19">
-        <v>15.53217157536559</v>
+        <v>15.39855774844442</v>
       </c>
       <c r="G19">
-        <v>17.60197924945392</v>
+        <v>16.86621579994</v>
       </c>
       <c r="H19">
-        <v>3.825795062795598</v>
+        <v>3.683021471690794</v>
       </c>
       <c r="I19">
-        <v>4.144404303360704</v>
+        <v>3.859856425246382</v>
       </c>
       <c r="J19">
-        <v>7.590712490820294</v>
+        <v>8.130068732593138</v>
       </c>
       <c r="K19">
-        <v>15.58202318799029</v>
+        <v>14.86103828886525</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.32456104571035</v>
       </c>
       <c r="M19">
-        <v>17.361282248542</v>
+        <v>10.49712679525385</v>
       </c>
       <c r="N19">
-        <v>5.58814191282783</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.574422886259756</v>
+        <v>17.29754067805723</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.824630850997447</v>
       </c>
       <c r="Q19">
-        <v>11.87829486234974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.519320558036291</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.77088647926014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.32051437674751</v>
+        <v>12.88203893171372</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.899777909458304</v>
+        <v>5.959994909415933</v>
       </c>
       <c r="E20">
-        <v>12.63813453109153</v>
+        <v>12.07639804520083</v>
       </c>
       <c r="F20">
-        <v>16.70396882045145</v>
+        <v>16.37033503526187</v>
       </c>
       <c r="G20">
-        <v>19.61186187626978</v>
+        <v>18.89193891294046</v>
       </c>
       <c r="H20">
-        <v>2.655766710892513</v>
+        <v>2.471337368855278</v>
       </c>
       <c r="I20">
-        <v>4.053683707664766</v>
+        <v>3.782369867493951</v>
       </c>
       <c r="J20">
-        <v>7.881272979614491</v>
+        <v>8.264600221243089</v>
       </c>
       <c r="K20">
-        <v>16.00068831090849</v>
+        <v>15.13754479798833</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.54243767252646</v>
       </c>
       <c r="M20">
-        <v>16.87256600911565</v>
+        <v>10.71048807266261</v>
       </c>
       <c r="N20">
-        <v>6.736455879697075</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.58301355270416</v>
+        <v>16.93701769480339</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.013498604382827</v>
       </c>
       <c r="Q20">
-        <v>12.66714382494512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.51108973365338</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.40785148210657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.09760224147481</v>
+        <v>13.66914747436826</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.148934936397795</v>
+        <v>6.290470149858628</v>
       </c>
       <c r="E21">
-        <v>12.75259973068732</v>
+        <v>12.16872414706956</v>
       </c>
       <c r="F21">
-        <v>17.25063424440685</v>
+        <v>16.55334037744326</v>
       </c>
       <c r="G21">
-        <v>20.32007303073029</v>
+        <v>21.34706590299074</v>
       </c>
       <c r="H21">
-        <v>2.447132264961519</v>
+        <v>2.281098981202452</v>
       </c>
       <c r="I21">
-        <v>3.912414632307659</v>
+        <v>3.664383413464456</v>
       </c>
       <c r="J21">
-        <v>7.880564031406068</v>
+        <v>7.591968024405397</v>
       </c>
       <c r="K21">
-        <v>15.81228642415638</v>
+        <v>14.8728664564038</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.36348765310956</v>
       </c>
       <c r="M21">
-        <v>17.56165684376495</v>
+        <v>10.53704744337987</v>
       </c>
       <c r="N21">
-        <v>7.104382634239946</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.08730274176768</v>
+        <v>17.63099809373846</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.369314526300911</v>
       </c>
       <c r="Q21">
-        <v>12.81753126076019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.01825367826799</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.2858657816849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.5770738531347</v>
+        <v>14.16235938080511</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.31156213528141</v>
+        <v>6.50753031121962</v>
       </c>
       <c r="E22">
-        <v>12.82235063655227</v>
+        <v>12.2303951128395</v>
       </c>
       <c r="F22">
-        <v>17.58557008907163</v>
+        <v>16.63952989470759</v>
       </c>
       <c r="G22">
-        <v>20.7435330163247</v>
+        <v>23.01491097834817</v>
       </c>
       <c r="H22">
-        <v>2.325492708473649</v>
+        <v>2.171253581424728</v>
       </c>
       <c r="I22">
-        <v>3.815237398997369</v>
+        <v>3.579829332867145</v>
       </c>
       <c r="J22">
-        <v>7.876379692340815</v>
+        <v>7.195687763889463</v>
       </c>
       <c r="K22">
-        <v>15.67977061971078</v>
+        <v>14.69114014481838</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.24872864085501</v>
       </c>
       <c r="M22">
-        <v>18.01031221931106</v>
+        <v>10.42167340137073</v>
       </c>
       <c r="N22">
-        <v>7.278348267941142</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.36929905698491</v>
+        <v>18.07589443801345</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.53336369706668</v>
       </c>
       <c r="Q22">
-        <v>12.9044169682859</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.30281537940083</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.18180121558424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.34680255553152</v>
+        <v>13.91672774362355</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.221059004364404</v>
+        <v>6.381083536518714</v>
       </c>
       <c r="E23">
-        <v>12.78965420651632</v>
+        <v>12.20138988630593</v>
       </c>
       <c r="F23">
-        <v>17.42827809017083</v>
+        <v>16.64694582599024</v>
       </c>
       <c r="G23">
-        <v>20.55572457397099</v>
+        <v>21.96060536372986</v>
       </c>
       <c r="H23">
-        <v>2.389311096633833</v>
+        <v>2.228371649571343</v>
       </c>
       <c r="I23">
-        <v>3.857260963817191</v>
+        <v>3.612882055130101</v>
       </c>
       <c r="J23">
-        <v>7.88510221609031</v>
+        <v>7.461230764093534</v>
       </c>
       <c r="K23">
-        <v>15.76856902065491</v>
+        <v>14.80734200682809</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.32057709493295</v>
       </c>
       <c r="M23">
-        <v>17.75281988597851</v>
+        <v>10.50049891018915</v>
       </c>
       <c r="N23">
-        <v>7.176288499724978</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.22303541966175</v>
+        <v>17.82795283693851</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.440153007920845</v>
       </c>
       <c r="Q23">
-        <v>12.87429636082771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.1540433790345</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.27758880592218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.39468014382639</v>
+        <v>12.94192250181704</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.873153870827498</v>
+        <v>5.935072752196133</v>
       </c>
       <c r="E24">
-        <v>12.65712514873668</v>
+        <v>12.08218350909673</v>
       </c>
       <c r="F24">
-        <v>16.80728056879238</v>
+        <v>16.46298866059904</v>
       </c>
       <c r="G24">
-        <v>19.80086574838433</v>
+        <v>19.0454539617964</v>
       </c>
       <c r="H24">
-        <v>2.637811514889662</v>
+        <v>2.45314497222141</v>
       </c>
       <c r="I24">
-        <v>4.036644030751846</v>
+        <v>3.762506620859458</v>
       </c>
       <c r="J24">
-        <v>7.914939253982782</v>
+        <v>8.297656115628381</v>
       </c>
       <c r="K24">
-        <v>16.07962194383726</v>
+        <v>15.19797972874536</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.58709339382031</v>
       </c>
       <c r="M24">
-        <v>16.77773499310699</v>
+        <v>10.75742843806116</v>
       </c>
       <c r="N24">
-        <v>6.79481786714389</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.64542801963403</v>
+        <v>16.85228610805121</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.077201724040973</v>
       </c>
       <c r="Q24">
-        <v>12.74973724612821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.57169484142706</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.48164140774347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.27830852550768</v>
+        <v>11.8685513752362</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.472844760054485</v>
+        <v>5.50785143561376</v>
       </c>
       <c r="E25">
-        <v>12.5102402115303</v>
+        <v>11.93267829506482</v>
       </c>
       <c r="F25">
-        <v>16.16139607532558</v>
+        <v>15.91312690335921</v>
       </c>
       <c r="G25">
-        <v>19.03030297062889</v>
+        <v>18.1455619012044</v>
       </c>
       <c r="H25">
-        <v>2.917887347559029</v>
+        <v>2.712997792450357</v>
       </c>
       <c r="I25">
-        <v>4.240661085107083</v>
+        <v>3.938090487495665</v>
       </c>
       <c r="J25">
-        <v>7.963167124570749</v>
+        <v>8.40315103388086</v>
       </c>
       <c r="K25">
-        <v>16.42575550983493</v>
+        <v>15.56117466554503</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.86403369617422</v>
       </c>
       <c r="M25">
-        <v>15.66125721426701</v>
+        <v>11.01151715542072</v>
       </c>
       <c r="N25">
-        <v>6.362173006352695</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>9.985518571540597</v>
+        <v>15.6598151770677</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.63809528731729</v>
       </c>
       <c r="Q25">
-        <v>12.65040650396041</v>
+        <v>9.915296208756983</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.45201471284487</v>
       </c>
     </row>
   </sheetData>
